--- a/documents/PSI.xlsx
+++ b/documents/PSI.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="24855" windowHeight="12015" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="24855" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="Request" sheetId="1" r:id="rId1"/>
@@ -780,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -791,35 +791,36 @@
     <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.7109375" customWidth="1"/>
     <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -829,42 +830,42 @@
       <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
         <v>68</v>
       </c>
@@ -874,75 +875,93 @@
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6">
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="B7" t="s">
         <v>2</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="B9" t="s">
         <v>18</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="B10" t="s">
         <v>20</v>
       </c>
       <c r="C10">
         <v>30</v>
       </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="D10">
+        <v>60</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="B11" t="s">
         <v>21</v>
       </c>
       <c r="C11">
         <v>17</v>
       </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="D11">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -952,88 +971,109 @@
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13">
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="B14" t="s">
         <v>2</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="B15" t="s">
         <v>14</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15">
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="B16" t="s">
         <v>18</v>
       </c>
       <c r="C16">
         <v>4</v>
       </c>
-      <c r="D16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="B17" t="s">
         <v>20</v>
       </c>
       <c r="C17">
         <v>30</v>
       </c>
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="D17">
+        <v>60</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="B18" t="s">
         <v>21</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
-      <c r="D18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="D18">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="B19" t="s">
         <v>42</v>
       </c>
       <c r="C19">
         <v>32</v>
       </c>
-      <c r="D19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="D19">
+        <v>64</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -1041,612 +1081,662 @@
       <c r="C21">
         <v>2</v>
       </c>
-      <c r="D21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="B22" t="s">
         <v>2</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
-      <c r="D22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="B23" t="s">
         <v>14</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="B24" t="s">
         <v>18</v>
       </c>
       <c r="C24">
         <v>4</v>
       </c>
-      <c r="D24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="B25" t="s">
-        <v>20</v>
+      <c r="D24">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="B25" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="C25">
         <v>30</v>
       </c>
-      <c r="D25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="B26" t="s">
-        <v>21</v>
+      <c r="D25">
+        <v>60</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="B26" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="C26">
-        <v>17</v>
-      </c>
-      <c r="D26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>30</v>
+      </c>
+      <c r="D26">
+        <v>60</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="B27" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C27">
-        <v>32</v>
-      </c>
-      <c r="D27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="B28" t="s">
-        <v>59</v>
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="B28" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="C28">
-        <v>3</v>
-      </c>
-      <c r="D28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="D28">
+        <v>60</v>
+      </c>
+      <c r="E28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="B29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29">
+        <v>30</v>
+      </c>
+      <c r="D29">
+        <v>60</v>
+      </c>
+      <c r="E29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="B30" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="C30">
-        <v>2</v>
-      </c>
-      <c r="D30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="B31" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="B31" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33">
         <v>14</v>
       </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="B33" t="s">
+    </row>
+    <row r="34" spans="1:8">
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="B36" t="s">
         <v>18</v>
       </c>
-      <c r="C33">
+      <c r="C36">
         <v>4</v>
       </c>
-      <c r="D33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="B34" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34">
-        <v>30</v>
-      </c>
-      <c r="D34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="B35" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35">
-        <v>30</v>
-      </c>
-      <c r="D35" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="B36" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="B37" s="1" t="s">
-        <v>81</v>
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="B37" t="s">
+        <v>43</v>
       </c>
       <c r="C37">
-        <v>30</v>
-      </c>
-      <c r="D37" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="B38" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38">
-        <v>30</v>
-      </c>
-      <c r="D38" t="s">
-        <v>19</v>
-      </c>
-      <c r="F38" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="B39" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="B41" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="6">
+        <v>1</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="B43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43">
         <v>4</v>
       </c>
-      <c r="D39" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="B40" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40">
-        <v>4</v>
-      </c>
-      <c r="D40" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>2</v>
-      </c>
-      <c r="D42" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="B43" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43" s="6">
-        <v>1</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="E43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="30">
+      <c r="B48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="B49" t="s">
         <v>14</v>
       </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="B45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45">
-        <v>4</v>
-      </c>
-      <c r="D45" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="B46" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46">
-        <v>8</v>
-      </c>
-      <c r="D46" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="B47" t="s">
-        <v>22</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" t="s">
-        <v>90</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" s="4">
-        <v>2</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="4">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="B50" t="s">
-        <v>2</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49">
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51">
-        <v>11</v>
+        <v>2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51">
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="B52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="B54" t="s">
         <v>18</v>
       </c>
-      <c r="C52">
+      <c r="C54">
         <v>4</v>
       </c>
-      <c r="D52" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="B53" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C53">
-        <v>30</v>
-      </c>
-      <c r="D53" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="B54" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C54">
-        <v>30</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="B55" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55" t="s">
-        <v>9</v>
+        <v>30</v>
+      </c>
+      <c r="E55" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="B56" s="1" t="s">
-        <v>81</v>
+      <c r="B56" t="s">
+        <v>21</v>
       </c>
       <c r="C56">
-        <v>30</v>
-      </c>
-      <c r="D56" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="B57" s="1" t="s">
-        <v>82</v>
+      <c r="B57" t="s">
+        <v>42</v>
       </c>
       <c r="C57">
-        <v>30</v>
-      </c>
-      <c r="D57" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="B58" s="1" t="s">
-        <v>83</v>
+      <c r="B58" t="s">
+        <v>59</v>
       </c>
       <c r="C58">
-        <v>4</v>
-      </c>
-      <c r="D58" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="B59" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C59">
-        <v>4</v>
-      </c>
-      <c r="D59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="B60" t="s">
-        <v>117</v>
-      </c>
-      <c r="C60">
-        <v>10</v>
-      </c>
-      <c r="D60" t="s">
-        <v>19</v>
+      <c r="A60" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="6">
+        <v>2</v>
+      </c>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="6">
+        <v>213</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="B61" t="s">
-        <v>118</v>
+        <v>2</v>
       </c>
       <c r="C61">
-        <v>4</v>
-      </c>
-      <c r="D61" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="B62" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="C62">
-        <v>32</v>
-      </c>
-      <c r="D62" t="s">
-        <v>19</v>
-      </c>
-      <c r="F62" t="s">
-        <v>71</v>
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62">
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="B63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+      <c r="E63" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="B64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64">
+        <v>30</v>
+      </c>
+      <c r="E64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7">
+      <c r="B65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65">
+        <v>30</v>
+      </c>
+      <c r="E65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7">
+      <c r="B66" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7">
+      <c r="B67" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C67">
+        <v>30</v>
+      </c>
+      <c r="E67" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7">
+      <c r="B68" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68">
+        <v>30</v>
+      </c>
+      <c r="E68" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7">
+      <c r="B69" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C69">
+        <v>4</v>
+      </c>
+      <c r="E69" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="B70" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C70">
+        <v>4</v>
+      </c>
+      <c r="E70" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="B71" t="s">
+        <v>117</v>
+      </c>
+      <c r="C71">
+        <v>10</v>
+      </c>
+      <c r="D71">
+        <v>20</v>
+      </c>
+      <c r="E71" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7">
+      <c r="B72" t="s">
+        <v>118</v>
+      </c>
+      <c r="C72">
+        <v>4</v>
+      </c>
+      <c r="D72">
+        <v>8</v>
+      </c>
+      <c r="E72" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7">
+      <c r="B73" t="s">
+        <v>119</v>
+      </c>
+      <c r="C73">
+        <v>32</v>
+      </c>
+      <c r="D73">
+        <v>64</v>
+      </c>
+      <c r="E73" t="s">
+        <v>19</v>
+      </c>
+      <c r="G73" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7">
+      <c r="B74" t="s">
         <v>120</v>
       </c>
-      <c r="C63">
+      <c r="C74">
         <v>32</v>
       </c>
-      <c r="D63" t="s">
-        <v>19</v>
-      </c>
-      <c r="F63" t="s">
+      <c r="D74">
+        <v>64</v>
+      </c>
+      <c r="E74" t="s">
+        <v>19</v>
+      </c>
+      <c r="G74" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" t="s">
-        <v>127</v>
-      </c>
-      <c r="B65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C65">
-        <v>2</v>
-      </c>
-      <c r="D65" t="s">
-        <v>8</v>
-      </c>
-      <c r="E65">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="B66" t="s">
-        <v>2</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="B67" t="s">
-        <v>14</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="B68" t="s">
-        <v>18</v>
-      </c>
-      <c r="C68">
-        <v>4</v>
-      </c>
-      <c r="D68" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="B69" t="s">
-        <v>43</v>
-      </c>
-      <c r="C69">
-        <v>8</v>
-      </c>
-      <c r="D69" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" t="s">
-        <v>131</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1</v>
-      </c>
-      <c r="C71">
-        <v>2</v>
-      </c>
-      <c r="D71" t="s">
-        <v>8</v>
-      </c>
-      <c r="E71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="30">
-      <c r="B72" t="s">
-        <v>2</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72" t="s">
-        <v>9</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="B73" t="s">
-        <v>14</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73" t="s">
-        <v>9</v>
-      </c>
-      <c r="E73">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2273,7 +2363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>

--- a/documents/PSI.xlsx
+++ b/documents/PSI.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="24855" windowHeight="12015"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Request" sheetId="1" r:id="rId1"/>
     <sheet name="Response" sheetId="2" r:id="rId2"/>
     <sheet name="Keys" sheetId="3" r:id="rId3"/>
     <sheet name="Template" sheetId="4" r:id="rId4"/>
+    <sheet name="Validations" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="140">
   <si>
     <t>HeartBeat</t>
   </si>
@@ -426,13 +427,25 @@
   </si>
   <si>
     <t>whatever received in request</t>
+  </si>
+  <si>
+    <t>Invalid Message Response</t>
+  </si>
+  <si>
+    <t>In case the message type id is other than (1, 2, 3, 4, 5, 6, 8,10,11)</t>
+  </si>
+  <si>
+    <t>In case the length is not valid</t>
+  </si>
+  <si>
+    <t>Cofirmation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -492,6 +505,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -570,6 +588,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -604,6 +623,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -779,48 +799,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49:E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.7109375" customWidth="1"/>
     <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="50.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
       </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -830,42 +849,42 @@
       <c r="C2">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>68</v>
       </c>
@@ -875,93 +894,75 @@
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="F6">
+      <c r="E6">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>2</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>18</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>20</v>
       </c>
       <c r="C10">
         <v>30</v>
       </c>
-      <c r="D10">
-        <v>60</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>21</v>
       </c>
       <c r="C11">
         <v>17</v>
       </c>
-      <c r="D11">
-        <v>34</v>
-      </c>
-      <c r="E11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -971,107 +972,86 @@
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D13" t="s">
         <v>8</v>
       </c>
-      <c r="F13">
+      <c r="E13">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>2</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>14</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15">
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>18</v>
       </c>
       <c r="C16">
         <v>4</v>
       </c>
-      <c r="D16">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>20</v>
       </c>
       <c r="C17">
         <v>30</v>
       </c>
-      <c r="D17">
-        <v>60</v>
-      </c>
-      <c r="E17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>21</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
-      <c r="D18">
-        <v>34</v>
-      </c>
-      <c r="E18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>42</v>
       </c>
       <c r="C19">
         <v>32</v>
       </c>
-      <c r="D19">
-        <v>64</v>
-      </c>
-      <c r="E19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>67</v>
       </c>
@@ -1081,175 +1061,142 @@
       <c r="C21">
         <v>2</v>
       </c>
-      <c r="D21">
-        <v>4</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="D21" t="s">
         <v>8</v>
       </c>
-      <c r="F21">
+      <c r="E21">
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>2</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>14</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23">
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>18</v>
       </c>
       <c r="C24">
         <v>4</v>
       </c>
-      <c r="D24">
-        <v>8</v>
-      </c>
-      <c r="E24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C25">
         <v>30</v>
       </c>
-      <c r="D25">
-        <v>60</v>
-      </c>
-      <c r="E25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C26">
         <v>30</v>
       </c>
-      <c r="D26">
-        <v>60</v>
-      </c>
-      <c r="E26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>72</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C28">
         <v>30</v>
       </c>
-      <c r="D28">
-        <v>60</v>
-      </c>
-      <c r="E28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C29">
         <v>30</v>
       </c>
-      <c r="D29">
-        <v>60</v>
-      </c>
-      <c r="E29" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C30">
         <v>4</v>
       </c>
-      <c r="D30">
-        <v>8</v>
-      </c>
-      <c r="E30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C31">
         <v>4</v>
       </c>
-      <c r="D31">
-        <v>8</v>
-      </c>
-      <c r="E31" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>127</v>
       </c>
@@ -1259,483 +1206,547 @@
       <c r="C33">
         <v>2</v>
       </c>
-      <c r="E33" t="s">
+      <c r="D33" t="s">
         <v>8</v>
       </c>
-      <c r="F33">
+      <c r="E33">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>2</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
-      <c r="E34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>14</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
-      <c r="E35" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35">
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>18</v>
       </c>
       <c r="C36">
         <v>4</v>
       </c>
-      <c r="E36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>43</v>
       </c>
       <c r="C37">
         <v>8</v>
       </c>
-      <c r="E37" t="s">
+      <c r="D37" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
-      <c r="A40" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>52</v>
       </c>
-      <c r="B40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>2</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
         <v>8</v>
       </c>
-      <c r="F40">
+      <c r="E39">
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
-      <c r="B41" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C41" s="6">
-        <v>1</v>
-      </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="6">
+        <v>1</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>8</v>
+      </c>
+      <c r="D43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>139</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="6">
+        <v>1</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>14</v>
       </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="E42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="B43" t="s">
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>18</v>
       </c>
-      <c r="C43">
+      <c r="C49">
         <v>4</v>
       </c>
-      <c r="E43" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="B44" t="s">
+      <c r="D49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>43</v>
       </c>
-      <c r="C44">
+      <c r="C50">
         <v>8</v>
       </c>
-      <c r="E44" t="s">
+      <c r="D50" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
-      <c r="B45" t="s">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>22</v>
       </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
-      <c r="A47" t="s">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>131</v>
       </c>
-      <c r="B47" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>2</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
         <v>8</v>
       </c>
-      <c r="F47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="30">
-      <c r="B48" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="E48" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="7" t="s">
+      <c r="E53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="B49" t="s">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>14</v>
       </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="E49" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49">
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55">
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51" t="s">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>58</v>
       </c>
-      <c r="B51" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51">
-        <v>2</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
         <v>8</v>
       </c>
-      <c r="F51">
+      <c r="E57">
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
-      <c r="B52" t="s">
-        <v>2</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="E52" t="s">
-        <v>9</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="B53" t="s">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
         <v>14</v>
       </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="E53" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53">
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
-      <c r="B54" t="s">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
         <v>18</v>
       </c>
-      <c r="C54">
+      <c r="C60">
         <v>4</v>
       </c>
-      <c r="E54" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="B55" t="s">
+      <c r="D60" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
         <v>20</v>
       </c>
-      <c r="C55">
+      <c r="C61">
         <v>30</v>
       </c>
-      <c r="E55" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="B56" t="s">
+      <c r="D61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
         <v>21</v>
       </c>
-      <c r="C56">
+      <c r="C62">
         <v>17</v>
       </c>
-      <c r="E56" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="B57" t="s">
+      <c r="D62" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
         <v>42</v>
       </c>
-      <c r="C57">
+      <c r="C63">
         <v>32</v>
       </c>
-      <c r="E57" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="B58" t="s">
+      <c r="D63" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
         <v>59</v>
       </c>
-      <c r="C58">
+      <c r="C64">
         <v>3</v>
       </c>
-      <c r="E58" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" t="s">
+      <c r="D64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>90</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" s="6">
-        <v>2</v>
-      </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6" t="s">
+      <c r="B67" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="4">
+        <v>2</v>
+      </c>
+      <c r="D67" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F60" s="6">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="B61" t="s">
-        <v>2</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="E61" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="B62" t="s">
+      <c r="E67" s="4">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
         <v>14</v>
       </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="E62" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62">
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69">
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
-      <c r="B63" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
         <v>18</v>
-      </c>
-      <c r="C63">
-        <v>4</v>
-      </c>
-      <c r="E63" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="B64" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C64">
-        <v>30</v>
-      </c>
-      <c r="E64" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7">
-      <c r="B65" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C65">
-        <v>30</v>
-      </c>
-      <c r="E65" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7">
-      <c r="B66" t="s">
-        <v>72</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="E66" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7">
-      <c r="B67" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C67">
-        <v>30</v>
-      </c>
-      <c r="E67" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7">
-      <c r="B68" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C68">
-        <v>30</v>
-      </c>
-      <c r="E68" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7">
-      <c r="B69" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C69">
-        <v>4</v>
-      </c>
-      <c r="E69" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7">
-      <c r="B70" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="C70">
         <v>4</v>
       </c>
-      <c r="E70" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7">
-      <c r="B71" t="s">
+      <c r="D70" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C71">
+        <v>30</v>
+      </c>
+      <c r="D71" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C72">
+        <v>30</v>
+      </c>
+      <c r="D72" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C74">
+        <v>30</v>
+      </c>
+      <c r="D74" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75">
+        <v>30</v>
+      </c>
+      <c r="D75" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C76">
+        <v>4</v>
+      </c>
+      <c r="D76" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77">
+        <v>4</v>
+      </c>
+      <c r="D77" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
         <v>117</v>
       </c>
-      <c r="C71">
+      <c r="C78">
         <v>10</v>
       </c>
-      <c r="D71">
-        <v>20</v>
-      </c>
-      <c r="E71" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7">
-      <c r="B72" t="s">
+      <c r="D78" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
         <v>118</v>
       </c>
-      <c r="C72">
+      <c r="C79">
         <v>4</v>
       </c>
-      <c r="D72">
-        <v>8</v>
-      </c>
-      <c r="E72" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7">
-      <c r="B73" t="s">
+      <c r="D79" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
         <v>119</v>
       </c>
-      <c r="C73">
+      <c r="C80">
         <v>32</v>
       </c>
-      <c r="D73">
-        <v>64</v>
-      </c>
-      <c r="E73" t="s">
-        <v>19</v>
-      </c>
-      <c r="G73" t="s">
+      <c r="D80" t="s">
+        <v>19</v>
+      </c>
+      <c r="F80" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="2:7">
-      <c r="B74" t="s">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
         <v>120</v>
       </c>
-      <c r="C74">
+      <c r="C81">
         <v>32</v>
       </c>
-      <c r="D74">
-        <v>64</v>
-      </c>
-      <c r="E74" t="s">
-        <v>19</v>
-      </c>
-      <c r="G74" t="s">
+      <c r="D81" t="s">
+        <v>19</v>
+      </c>
+      <c r="F81" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1746,14 +1757,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
@@ -1762,7 +1773,7 @@
     <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -1776,7 +1787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1793,7 +1804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -1807,7 +1818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>14</v>
       </c>
@@ -1821,7 +1832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1838,7 +1849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>2</v>
       </c>
@@ -1852,7 +1863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>14</v>
       </c>
@@ -1866,7 +1877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>18</v>
       </c>
@@ -1877,7 +1888,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>22</v>
       </c>
@@ -1891,7 +1902,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>51</v>
       </c>
@@ -1902,7 +1913,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1919,7 +1930,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>2</v>
       </c>
@@ -1933,7 +1944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -1947,7 +1958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>18</v>
       </c>
@@ -1958,7 +1969,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>43</v>
       </c>
@@ -1969,7 +1980,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>22</v>
       </c>
@@ -1983,24 +1994,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="4">
-        <v>2</v>
-      </c>
-      <c r="D20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6">
+        <v>2</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="E20" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>2</v>
       </c>
@@ -2014,7 +2025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>14</v>
       </c>
@@ -2025,10 +2036,10 @@
         <v>9</v>
       </c>
       <c r="E22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>18</v>
       </c>
@@ -2039,7 +2050,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>43</v>
       </c>
@@ -2050,7 +2061,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>22</v>
       </c>
@@ -2061,9 +2072,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>1</v>
@@ -2075,10 +2086,10 @@
         <v>8</v>
       </c>
       <c r="E27" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>2</v>
       </c>
@@ -2092,7 +2103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>14</v>
       </c>
@@ -2103,10 +2114,10 @@
         <v>9</v>
       </c>
       <c r="E29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>18</v>
       </c>
@@ -2117,230 +2128,233 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>134</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="6">
+        <v>2</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="4">
+        <v>2</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>43</v>
       </c>
-      <c r="C31">
+      <c r="C43">
         <v>8</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D43" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="B32" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>22</v>
       </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>121</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="6">
-        <v>2</v>
-      </c>
-      <c r="D34" s="6" t="s">
+      <c r="B46" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="6">
+        <v>2</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E46" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="B35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="B36" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>14</v>
       </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36">
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="B37" t="s">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>18</v>
       </c>
-      <c r="C37">
+      <c r="C49">
         <v>4</v>
       </c>
-      <c r="D37" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="B38" t="s">
+      <c r="D49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>43</v>
       </c>
-      <c r="C38">
+      <c r="C50">
         <v>8</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D50" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="B39" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>127</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="6">
-        <v>2</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="B42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="B43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="B44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44">
-        <v>4</v>
-      </c>
-      <c r="D44" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="B45" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" t="s">
-        <v>134</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="6">
-        <v>2</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="B48" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5">
-      <c r="B49" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5">
-      <c r="B50" t="s">
-        <v>18</v>
-      </c>
-      <c r="C50">
-        <v>4</v>
-      </c>
-      <c r="D50" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>22</v>
       </c>
@@ -2349,9 +2363,6 @@
       </c>
       <c r="D51" t="s">
         <v>24</v>
-      </c>
-      <c r="E51">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2360,14 +2371,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D2" sqref="D2:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -2379,7 +2390,7 @@
     <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2402,7 +2413,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2425,7 +2436,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2445,7 +2456,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D4">
         <v>3</v>
       </c>
@@ -2459,7 +2470,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D5">
         <v>4</v>
       </c>
@@ -2473,7 +2484,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>5</v>
       </c>
@@ -2487,7 +2498,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>6</v>
       </c>
@@ -2504,7 +2515,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>8</v>
       </c>
@@ -2518,7 +2529,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>10</v>
       </c>
@@ -2532,7 +2543,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D10">
         <v>11</v>
       </c>
@@ -2546,7 +2557,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H12" t="s">
         <v>61</v>
       </c>
@@ -2554,7 +2565,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G13" s="3" t="s">
         <v>56</v>
       </c>
@@ -2565,7 +2576,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G14" s="3" t="s">
         <v>57</v>
       </c>
@@ -2576,7 +2587,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G15" s="3" t="s">
         <v>128</v>
       </c>
@@ -2587,7 +2598,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="7:9">
+    <row r="17" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
         <v>62</v>
       </c>
@@ -2598,7 +2609,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="7:9">
+    <row r="18" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G18" s="3" t="s">
         <v>25</v>
       </c>
@@ -2609,7 +2620,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="7:9">
+    <row r="19" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G19" s="3" t="s">
         <v>26</v>
       </c>
@@ -2620,7 +2631,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="7:9">
+    <row r="20" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G20" s="3" t="s">
         <v>27</v>
       </c>
@@ -2631,7 +2642,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="7:9">
+    <row r="21" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G21" s="3" t="s">
         <v>28</v>
       </c>
@@ -2642,7 +2653,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="7:9">
+    <row r="22" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G22" s="3" t="s">
         <v>29</v>
       </c>
@@ -2653,7 +2664,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="7:9">
+    <row r="23" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G23" s="3" t="s">
         <v>123</v>
       </c>
@@ -2664,7 +2675,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="7:9">
+    <row r="24" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G24" s="3" t="s">
         <v>124</v>
       </c>
@@ -2675,7 +2686,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="7:9">
+    <row r="25" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G25" s="3" t="s">
         <v>30</v>
       </c>
@@ -2686,7 +2697,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="7:9">
+    <row r="27" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
         <v>73</v>
       </c>
@@ -2694,7 +2705,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="7:9">
+    <row r="28" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G28" s="3" t="s">
         <v>57</v>
       </c>
@@ -2702,7 +2713,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="7:9">
+    <row r="29" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G29" s="3" t="s">
         <v>74</v>
       </c>
@@ -2710,7 +2721,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="7:9">
+    <row r="30" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G30" s="3" t="s">
         <v>75</v>
       </c>
@@ -2718,7 +2729,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="7:9">
+    <row r="31" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G31" s="3" t="s">
         <v>76</v>
       </c>
@@ -2726,7 +2737,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="7:8">
+    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G33" t="s">
         <v>83</v>
       </c>
@@ -2734,7 +2745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="7:8">
+    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G34" s="3" t="s">
         <v>74</v>
       </c>
@@ -2742,7 +2753,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="7:8">
+    <row r="35" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G35" s="3" t="s">
         <v>75</v>
       </c>
@@ -2750,7 +2761,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="7:8">
+    <row r="36" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G36" s="3" t="s">
         <v>86</v>
       </c>
@@ -2758,7 +2769,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="7:8">
+    <row r="38" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G38" t="s">
         <v>108</v>
       </c>
@@ -2766,7 +2777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="7:8">
+    <row r="39" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G39" s="3" t="s">
         <v>91</v>
       </c>
@@ -2774,7 +2785,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="7:8">
+    <row r="40" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G40" s="3" t="s">
         <v>92</v>
       </c>
@@ -2782,7 +2793,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="7:8">
+    <row r="41" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G41" s="3" t="s">
         <v>93</v>
       </c>
@@ -2790,7 +2801,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="7:8">
+    <row r="42" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G42" s="3" t="s">
         <v>94</v>
       </c>
@@ -2798,7 +2809,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="7:8">
+    <row r="43" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G43" s="3" t="s">
         <v>95</v>
       </c>
@@ -2806,7 +2817,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="7:8">
+    <row r="44" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G44" s="3" t="s">
         <v>96</v>
       </c>
@@ -2814,7 +2825,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="7:8">
+    <row r="45" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G45" s="3" t="s">
         <v>97</v>
       </c>
@@ -2822,7 +2833,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="7:8">
+    <row r="46" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G46" s="3" t="s">
         <v>98</v>
       </c>
@@ -2830,7 +2841,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="48" spans="7:8">
+    <row r="48" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G48" t="s">
         <v>107</v>
       </c>
@@ -2838,7 +2849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="7:8">
+    <row r="49" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G49" s="3" t="s">
         <v>91</v>
       </c>
@@ -2846,7 +2857,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="7:8">
+    <row r="50" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G50" s="3" t="s">
         <v>92</v>
       </c>
@@ -2854,7 +2865,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="51" spans="7:8">
+    <row r="51" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G51" s="3" t="s">
         <v>93</v>
       </c>
@@ -2862,7 +2873,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="7:8">
+    <row r="52" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G52" s="3" t="s">
         <v>94</v>
       </c>
@@ -2870,7 +2881,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="53" spans="7:8">
+    <row r="53" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G53" s="3" t="s">
         <v>95</v>
       </c>
@@ -2878,7 +2889,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="54" spans="7:8">
+    <row r="54" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G54" s="3" t="s">
         <v>96</v>
       </c>
@@ -2886,7 +2897,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="55" spans="7:8">
+    <row r="55" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G55" s="3" t="s">
         <v>97</v>
       </c>
@@ -2894,7 +2905,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="7:8">
+    <row r="56" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G56" s="3" t="s">
         <v>98</v>
       </c>
@@ -2908,15 +2919,50 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="98" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/documents/PSI.xlsx
+++ b/documents/PSI.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="20730" windowHeight="11760" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Request" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Keys" sheetId="3" r:id="rId3"/>
     <sheet name="Template" sheetId="4" r:id="rId4"/>
     <sheet name="Validations" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="140">
   <si>
     <t>HeartBeat</t>
   </si>
@@ -444,8 +445,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,7 +489,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -499,6 +500,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,7 +595,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -623,7 +629,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -799,14 +804,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49:E51"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.7109375" customWidth="1"/>
@@ -822,7 +827,7 @@
     <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -839,7 +844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -856,7 +861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -870,7 +875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="B4" t="s">
         <v>14</v>
       </c>
@@ -884,7 +889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
         <v>68</v>
       </c>
@@ -901,7 +906,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="B7" t="s">
         <v>2</v>
       </c>
@@ -915,7 +920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="B8" t="s">
         <v>14</v>
       </c>
@@ -929,7 +934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="B9" t="s">
         <v>18</v>
       </c>
@@ -940,7 +945,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="B10" t="s">
         <v>20</v>
       </c>
@@ -951,7 +956,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -962,7 +967,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -979,7 +984,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="B14" t="s">
         <v>2</v>
       </c>
@@ -993,7 +998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -1007,7 +1012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="B16" t="s">
         <v>18</v>
       </c>
@@ -1018,7 +1023,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="B17" t="s">
         <v>20</v>
       </c>
@@ -1029,7 +1034,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="B18" t="s">
         <v>21</v>
       </c>
@@ -1040,7 +1045,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="B19" t="s">
         <v>42</v>
       </c>
@@ -1051,7 +1056,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>67</v>
       </c>
@@ -1068,7 +1073,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="B22" t="s">
         <v>2</v>
       </c>
@@ -1082,7 +1087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="B23" t="s">
         <v>14</v>
       </c>
@@ -1096,7 +1101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="B24" t="s">
         <v>18</v>
       </c>
@@ -1107,7 +1112,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="B25" s="1" t="s">
         <v>69</v>
       </c>
@@ -1118,7 +1123,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="B26" s="1" t="s">
         <v>70</v>
       </c>
@@ -1132,7 +1137,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="B27" t="s">
         <v>72</v>
       </c>
@@ -1143,7 +1148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="B28" s="1" t="s">
         <v>81</v>
       </c>
@@ -1154,7 +1159,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="B29" s="1" t="s">
         <v>82</v>
       </c>
@@ -1168,7 +1173,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="B30" s="1" t="s">
         <v>83</v>
       </c>
@@ -1179,7 +1184,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="B31" s="1" t="s">
         <v>84</v>
       </c>
@@ -1193,10 +1198,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>127</v>
       </c>
@@ -1213,7 +1218,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="B34" t="s">
         <v>2</v>
       </c>
@@ -1227,7 +1232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="B35" t="s">
         <v>14</v>
       </c>
@@ -1241,7 +1246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="B36" t="s">
         <v>18</v>
       </c>
@@ -1252,7 +1257,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="B37" t="s">
         <v>43</v>
       </c>
@@ -1263,7 +1268,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -1280,7 +1285,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="B40" s="6" t="s">
         <v>2</v>
       </c>
@@ -1294,7 +1299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="B41" t="s">
         <v>14</v>
       </c>
@@ -1308,7 +1313,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="B42" t="s">
         <v>18</v>
       </c>
@@ -1319,7 +1324,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="B43" t="s">
         <v>43</v>
       </c>
@@ -1330,7 +1335,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="B44" t="s">
         <v>22</v>
       </c>
@@ -1341,7 +1346,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>139</v>
       </c>
@@ -1358,7 +1363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="B47" s="6" t="s">
         <v>2</v>
       </c>
@@ -1372,7 +1377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="B48" t="s">
         <v>14</v>
       </c>
@@ -1386,7 +1391,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="B49" t="s">
         <v>18</v>
       </c>
@@ -1397,7 +1402,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="B50" t="s">
         <v>43</v>
       </c>
@@ -1408,7 +1413,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="B51" t="s">
         <v>22</v>
       </c>
@@ -1419,7 +1424,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>131</v>
       </c>
@@ -1436,7 +1441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="30">
       <c r="B54" t="s">
         <v>2</v>
       </c>
@@ -1453,7 +1458,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="B55" t="s">
         <v>14</v>
       </c>
@@ -1467,7 +1472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -1484,7 +1489,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="B58" t="s">
         <v>2</v>
       </c>
@@ -1498,7 +1503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="B59" t="s">
         <v>14</v>
       </c>
@@ -1512,7 +1517,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="B60" t="s">
         <v>18</v>
       </c>
@@ -1523,7 +1528,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="B61" t="s">
         <v>20</v>
       </c>
@@ -1534,7 +1539,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="B62" t="s">
         <v>21</v>
       </c>
@@ -1545,7 +1550,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="B63" t="s">
         <v>42</v>
       </c>
@@ -1556,7 +1561,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="B64" t="s">
         <v>59</v>
       </c>
@@ -1567,7 +1572,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>90</v>
       </c>
@@ -1584,7 +1589,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="B68" t="s">
         <v>2</v>
       </c>
@@ -1598,7 +1603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="B69" t="s">
         <v>14</v>
       </c>
@@ -1612,7 +1617,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="B70" t="s">
         <v>18</v>
       </c>
@@ -1623,7 +1628,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="B71" s="1" t="s">
         <v>69</v>
       </c>
@@ -1634,7 +1639,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="B72" s="1" t="s">
         <v>70</v>
       </c>
@@ -1645,7 +1650,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="B73" t="s">
         <v>72</v>
       </c>
@@ -1656,7 +1661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6">
       <c r="B74" s="1" t="s">
         <v>81</v>
       </c>
@@ -1667,7 +1672,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6">
       <c r="B75" s="1" t="s">
         <v>82</v>
       </c>
@@ -1678,7 +1683,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6">
       <c r="B76" s="1" t="s">
         <v>83</v>
       </c>
@@ -1689,7 +1694,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6">
       <c r="B77" s="1" t="s">
         <v>84</v>
       </c>
@@ -1700,7 +1705,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6">
       <c r="B78" t="s">
         <v>117</v>
       </c>
@@ -1711,7 +1716,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="B79" t="s">
         <v>118</v>
       </c>
@@ -1722,7 +1727,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6">
       <c r="B80" t="s">
         <v>119</v>
       </c>
@@ -1736,7 +1741,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:6">
       <c r="B81" t="s">
         <v>120</v>
       </c>
@@ -1757,14 +1762,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
@@ -1773,7 +1778,7 @@
     <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -1787,7 +1792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1804,7 +1809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -1818,7 +1823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="B4" t="s">
         <v>14</v>
       </c>
@@ -1832,7 +1837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1849,7 +1854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="B7" t="s">
         <v>2</v>
       </c>
@@ -1863,7 +1868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="B8" t="s">
         <v>14</v>
       </c>
@@ -1877,7 +1882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="B9" t="s">
         <v>18</v>
       </c>
@@ -1888,7 +1893,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="B10" t="s">
         <v>22</v>
       </c>
@@ -1902,7 +1907,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="B11" t="s">
         <v>51</v>
       </c>
@@ -1913,7 +1918,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1930,7 +1935,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="B14" t="s">
         <v>2</v>
       </c>
@@ -1944,7 +1949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -1958,7 +1963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="B16" t="s">
         <v>18</v>
       </c>
@@ -1969,7 +1974,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="B17" t="s">
         <v>43</v>
       </c>
@@ -1980,7 +1985,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="B18" t="s">
         <v>22</v>
       </c>
@@ -1994,7 +1999,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -2011,7 +2016,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="B21" t="s">
         <v>2</v>
       </c>
@@ -2025,7 +2030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="B22" t="s">
         <v>14</v>
       </c>
@@ -2039,7 +2044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="B23" t="s">
         <v>18</v>
       </c>
@@ -2050,7 +2055,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="B24" t="s">
         <v>43</v>
       </c>
@@ -2061,7 +2066,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="B25" t="s">
         <v>22</v>
       </c>
@@ -2072,7 +2077,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>127</v>
       </c>
@@ -2089,7 +2094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="B28" t="s">
         <v>2</v>
       </c>
@@ -2103,7 +2108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="B29" t="s">
         <v>14</v>
       </c>
@@ -2117,7 +2122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="B30" t="s">
         <v>18</v>
       </c>
@@ -2128,7 +2133,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="B31" t="s">
         <v>22</v>
       </c>
@@ -2139,7 +2144,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>134</v>
       </c>
@@ -2156,7 +2161,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="B34" t="s">
         <v>2</v>
       </c>
@@ -2170,7 +2175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="B35" t="s">
         <v>14</v>
       </c>
@@ -2184,7 +2189,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="B36" t="s">
         <v>18</v>
       </c>
@@ -2195,7 +2200,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="B37" t="s">
         <v>22</v>
       </c>
@@ -2209,7 +2214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>58</v>
       </c>
@@ -2226,7 +2231,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="B40" t="s">
         <v>2</v>
       </c>
@@ -2240,7 +2245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="B41" t="s">
         <v>14</v>
       </c>
@@ -2254,7 +2259,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="B42" t="s">
         <v>18</v>
       </c>
@@ -2265,7 +2270,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="B43" t="s">
         <v>43</v>
       </c>
@@ -2276,7 +2281,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="B44" t="s">
         <v>22</v>
       </c>
@@ -2287,7 +2292,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>121</v>
       </c>
@@ -2304,7 +2309,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="B47" t="s">
         <v>2</v>
       </c>
@@ -2318,7 +2323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="B48" t="s">
         <v>14</v>
       </c>
@@ -2332,7 +2337,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4">
       <c r="B49" t="s">
         <v>18</v>
       </c>
@@ -2343,7 +2348,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4">
       <c r="B50" t="s">
         <v>43</v>
       </c>
@@ -2354,7 +2359,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4">
       <c r="B51" t="s">
         <v>22</v>
       </c>
@@ -2371,14 +2376,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -2390,7 +2395,7 @@
     <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2413,7 +2418,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2436,7 +2441,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2456,7 +2461,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="D4">
         <v>3</v>
       </c>
@@ -2470,7 +2475,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="D5">
         <v>4</v>
       </c>
@@ -2484,7 +2489,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="D6">
         <v>5</v>
       </c>
@@ -2498,7 +2503,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="D7">
         <v>6</v>
       </c>
@@ -2515,7 +2520,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="D8">
         <v>8</v>
       </c>
@@ -2529,7 +2534,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="D9">
         <v>10</v>
       </c>
@@ -2543,7 +2548,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="D10">
         <v>11</v>
       </c>
@@ -2557,7 +2562,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="H12" t="s">
         <v>61</v>
       </c>
@@ -2565,7 +2570,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="G13" s="3" t="s">
         <v>56</v>
       </c>
@@ -2576,7 +2581,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="G14" s="3" t="s">
         <v>57</v>
       </c>
@@ -2587,7 +2592,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="G15" s="3" t="s">
         <v>128</v>
       </c>
@@ -2598,7 +2603,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:9">
       <c r="G17" t="s">
         <v>62</v>
       </c>
@@ -2609,7 +2614,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:9">
       <c r="G18" s="3" t="s">
         <v>25</v>
       </c>
@@ -2620,7 +2625,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:9">
       <c r="G19" s="3" t="s">
         <v>26</v>
       </c>
@@ -2631,7 +2636,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:9">
       <c r="G20" s="3" t="s">
         <v>27</v>
       </c>
@@ -2642,7 +2647,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:9">
       <c r="G21" s="3" t="s">
         <v>28</v>
       </c>
@@ -2653,7 +2658,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="7:9">
       <c r="G22" s="3" t="s">
         <v>29</v>
       </c>
@@ -2664,7 +2669,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="7:9">
       <c r="G23" s="3" t="s">
         <v>123</v>
       </c>
@@ -2675,7 +2680,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="7:9">
       <c r="G24" s="3" t="s">
         <v>124</v>
       </c>
@@ -2686,7 +2691,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="7:9">
       <c r="G25" s="3" t="s">
         <v>30</v>
       </c>
@@ -2697,7 +2702,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="7:9">
       <c r="G27" t="s">
         <v>73</v>
       </c>
@@ -2705,7 +2710,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="7:9">
       <c r="G28" s="3" t="s">
         <v>57</v>
       </c>
@@ -2713,7 +2718,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="7:9">
       <c r="G29" s="3" t="s">
         <v>74</v>
       </c>
@@ -2721,7 +2726,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="7:9">
       <c r="G30" s="3" t="s">
         <v>75</v>
       </c>
@@ -2729,7 +2734,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="7:9">
       <c r="G31" s="3" t="s">
         <v>76</v>
       </c>
@@ -2737,7 +2742,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:8">
       <c r="G33" t="s">
         <v>83</v>
       </c>
@@ -2745,7 +2750,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:8">
       <c r="G34" s="3" t="s">
         <v>74</v>
       </c>
@@ -2753,7 +2758,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:8">
       <c r="G35" s="3" t="s">
         <v>75</v>
       </c>
@@ -2761,7 +2766,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:8">
       <c r="G36" s="3" t="s">
         <v>86</v>
       </c>
@@ -2769,7 +2774,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="7:8">
       <c r="G38" t="s">
         <v>108</v>
       </c>
@@ -2777,7 +2782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="7:8">
       <c r="G39" s="3" t="s">
         <v>91</v>
       </c>
@@ -2785,7 +2790,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="7:8">
       <c r="G40" s="3" t="s">
         <v>92</v>
       </c>
@@ -2793,7 +2798,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="7:8">
       <c r="G41" s="3" t="s">
         <v>93</v>
       </c>
@@ -2801,7 +2806,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="7:8">
       <c r="G42" s="3" t="s">
         <v>94</v>
       </c>
@@ -2809,7 +2814,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="7:8">
       <c r="G43" s="3" t="s">
         <v>95</v>
       </c>
@@ -2817,7 +2822,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="7:8">
       <c r="G44" s="3" t="s">
         <v>96</v>
       </c>
@@ -2825,7 +2830,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="7:8">
       <c r="G45" s="3" t="s">
         <v>97</v>
       </c>
@@ -2833,7 +2838,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="7:8">
       <c r="G46" s="3" t="s">
         <v>98</v>
       </c>
@@ -2841,7 +2846,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="48" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="7:8">
       <c r="G48" t="s">
         <v>107</v>
       </c>
@@ -2849,7 +2854,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="7:8">
       <c r="G49" s="3" t="s">
         <v>91</v>
       </c>
@@ -2857,7 +2862,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="7:8">
       <c r="G50" s="3" t="s">
         <v>92</v>
       </c>
@@ -2865,7 +2870,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="51" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="7:8">
       <c r="G51" s="3" t="s">
         <v>93</v>
       </c>
@@ -2873,7 +2878,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="7:8">
       <c r="G52" s="3" t="s">
         <v>94</v>
       </c>
@@ -2881,7 +2886,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="53" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="7:8">
       <c r="G53" s="3" t="s">
         <v>95</v>
       </c>
@@ -2889,7 +2894,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="54" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="7:8">
       <c r="G54" s="3" t="s">
         <v>96</v>
       </c>
@@ -2897,7 +2902,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="55" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="7:8">
       <c r="G55" s="3" t="s">
         <v>97</v>
       </c>
@@ -2905,7 +2910,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="7:8">
       <c r="G56" s="3" t="s">
         <v>98</v>
       </c>
@@ -2919,34 +2924,34 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="98" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -2954,7 +2959,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>134</v>
       </c>
@@ -2965,4 +2970,967 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C137"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="M93" sqref="M93"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>135</v>
+      </c>
+      <c r="B2" s="8"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>34</v>
+      </c>
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>51</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>56</v>
+      </c>
+      <c r="B10" s="9"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>48</v>
+      </c>
+      <c r="B11" s="9"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>54</v>
+      </c>
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>55</v>
+      </c>
+      <c r="B13" s="9"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>56</v>
+      </c>
+      <c r="B14" s="9"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>52</v>
+      </c>
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>53</v>
+      </c>
+      <c r="B16" s="9"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>48</v>
+      </c>
+      <c r="B17" s="9"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>50</v>
+      </c>
+      <c r="B18" s="9"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>50</v>
+      </c>
+      <c r="B19" s="9"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>54</v>
+      </c>
+      <c r="B20" s="9"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>32</v>
+      </c>
+      <c r="B21" s="9"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>32</v>
+      </c>
+      <c r="B22" s="9"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>32</v>
+      </c>
+      <c r="B23" s="9"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>32</v>
+      </c>
+      <c r="B24" s="9"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>32</v>
+      </c>
+      <c r="B25" s="9"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>32</v>
+      </c>
+      <c r="B26" s="9"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>32</v>
+      </c>
+      <c r="B27" s="9"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>32</v>
+      </c>
+      <c r="B28" s="9"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>32</v>
+      </c>
+      <c r="B29" s="9"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>32</v>
+      </c>
+      <c r="B30" s="9"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>32</v>
+      </c>
+      <c r="B31" s="9"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" s="9"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="9"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="9"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" s="9"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>32</v>
+      </c>
+      <c r="B36" s="9"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>32</v>
+      </c>
+      <c r="B37" s="9"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>32</v>
+      </c>
+      <c r="B38" s="9"/>
+    </row>
+    <row r="39" spans="1:2" ht="45" customHeight="1">
+      <c r="A39">
+        <v>51</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>56</v>
+      </c>
+      <c r="B40" s="9"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>48</v>
+      </c>
+      <c r="B41" s="9"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>54</v>
+      </c>
+      <c r="B42" s="9"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>55</v>
+      </c>
+      <c r="B43" s="9"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>50</v>
+      </c>
+      <c r="B44" s="9"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>48</v>
+      </c>
+      <c r="B45" s="9"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>53</v>
+      </c>
+      <c r="B46" s="9"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>52</v>
+      </c>
+      <c r="B47" s="9"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>52</v>
+      </c>
+      <c r="B48" s="9"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>55</v>
+      </c>
+      <c r="B49" s="9"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>53</v>
+      </c>
+      <c r="B50" s="9"/>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>32</v>
+      </c>
+      <c r="B51" s="9"/>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>32</v>
+      </c>
+      <c r="B52" s="9"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>32</v>
+      </c>
+      <c r="B53" s="9"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>32</v>
+      </c>
+      <c r="B54" s="9"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>32</v>
+      </c>
+      <c r="B55" s="9"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>32</v>
+      </c>
+      <c r="B56" s="9"/>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>32</v>
+      </c>
+      <c r="B57" s="9"/>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>32</v>
+      </c>
+      <c r="B58" s="9"/>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>32</v>
+      </c>
+      <c r="B59" s="9"/>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>32</v>
+      </c>
+      <c r="B60" s="9"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>32</v>
+      </c>
+      <c r="B61" s="9"/>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>32</v>
+      </c>
+      <c r="B62" s="9"/>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>32</v>
+      </c>
+      <c r="B63" s="9"/>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>32</v>
+      </c>
+      <c r="B64" s="9"/>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>32</v>
+      </c>
+      <c r="B65" s="9"/>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>32</v>
+      </c>
+      <c r="B66" s="9"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>32</v>
+      </c>
+      <c r="B67" s="9"/>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>32</v>
+      </c>
+      <c r="B68" s="9"/>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="30" customHeight="1">
+      <c r="A70">
+        <v>51</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C70">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>56</v>
+      </c>
+      <c r="B71" s="9"/>
+      <c r="C71">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>48</v>
+      </c>
+      <c r="B72" s="9"/>
+      <c r="C72">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>54</v>
+      </c>
+      <c r="B73" s="9"/>
+      <c r="C73">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>55</v>
+      </c>
+      <c r="B74" s="9"/>
+      <c r="C74">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>55</v>
+      </c>
+      <c r="B75" s="9"/>
+      <c r="C75">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>54</v>
+      </c>
+      <c r="B76" s="9"/>
+      <c r="C76">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>55</v>
+      </c>
+      <c r="B77" s="9"/>
+      <c r="C77">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>48</v>
+      </c>
+      <c r="B78" s="9"/>
+      <c r="C78">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>57</v>
+      </c>
+      <c r="B79" s="9"/>
+      <c r="C79">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>50</v>
+      </c>
+      <c r="B80" s="9"/>
+      <c r="C80">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>53</v>
+      </c>
+      <c r="B81" s="9"/>
+      <c r="C81">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>32</v>
+      </c>
+      <c r="B82" s="9"/>
+      <c r="C82">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>32</v>
+      </c>
+      <c r="B83" s="9"/>
+      <c r="C83">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>32</v>
+      </c>
+      <c r="B84" s="9"/>
+      <c r="C84">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>32</v>
+      </c>
+      <c r="B85" s="9"/>
+      <c r="C85">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>32</v>
+      </c>
+      <c r="B86" s="9"/>
+      <c r="C86">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>32</v>
+      </c>
+      <c r="B87" s="9"/>
+      <c r="C87">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>32</v>
+      </c>
+      <c r="B88" s="9"/>
+      <c r="C88">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>32</v>
+      </c>
+      <c r="B89" s="9"/>
+      <c r="C89">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>32</v>
+      </c>
+      <c r="B90" s="9"/>
+      <c r="C90">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>32</v>
+      </c>
+      <c r="B91" s="9"/>
+      <c r="C91">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>32</v>
+      </c>
+      <c r="B92" s="9"/>
+      <c r="C92">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>32</v>
+      </c>
+      <c r="B93" s="9"/>
+      <c r="C93">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>32</v>
+      </c>
+      <c r="B94" s="9"/>
+      <c r="C94">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>32</v>
+      </c>
+      <c r="B95" s="9"/>
+      <c r="C95">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>32</v>
+      </c>
+      <c r="B96" s="9"/>
+      <c r="C96">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>32</v>
+      </c>
+      <c r="B97" s="9"/>
+      <c r="C97">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>32</v>
+      </c>
+      <c r="B98" s="9"/>
+      <c r="C98">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>32</v>
+      </c>
+      <c r="B99" s="9"/>
+      <c r="C99">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="45" customHeight="1">
+      <c r="A100">
+        <v>48</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>48</v>
+      </c>
+      <c r="B101" s="9"/>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>48</v>
+      </c>
+      <c r="B102" s="9"/>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>48</v>
+      </c>
+      <c r="B103" s="9"/>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>48</v>
+      </c>
+      <c r="B104" s="9"/>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>48</v>
+      </c>
+      <c r="B105" s="9"/>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>48</v>
+      </c>
+      <c r="B106" s="9"/>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>48</v>
+      </c>
+      <c r="B107" s="9"/>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <v>48</v>
+      </c>
+      <c r="B108" s="9"/>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>48</v>
+      </c>
+      <c r="B109" s="9"/>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <v>48</v>
+      </c>
+      <c r="B110" s="9"/>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>48</v>
+      </c>
+      <c r="B111" s="9"/>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <v>48</v>
+      </c>
+      <c r="B112" s="9"/>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113">
+        <v>48</v>
+      </c>
+      <c r="B113" s="9"/>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114">
+        <v>48</v>
+      </c>
+      <c r="B114" s="9"/>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115">
+        <v>48</v>
+      </c>
+      <c r="B115" s="9"/>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116">
+        <v>48</v>
+      </c>
+      <c r="B116" s="9"/>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117">
+        <v>48</v>
+      </c>
+      <c r="B117" s="9"/>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118">
+        <v>48</v>
+      </c>
+      <c r="B118" s="9"/>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119">
+        <v>48</v>
+      </c>
+      <c r="B119" s="9"/>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120">
+        <v>48</v>
+      </c>
+      <c r="B120" s="9"/>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121">
+        <v>48</v>
+      </c>
+      <c r="B121" s="9"/>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122">
+        <v>48</v>
+      </c>
+      <c r="B122" s="9"/>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123">
+        <v>48</v>
+      </c>
+      <c r="B123" s="9"/>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124">
+        <v>48</v>
+      </c>
+      <c r="B124" s="9"/>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125">
+        <v>48</v>
+      </c>
+      <c r="B125" s="9"/>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126">
+        <v>48</v>
+      </c>
+      <c r="B126" s="9"/>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127">
+        <v>48</v>
+      </c>
+      <c r="B127" s="9"/>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128">
+        <v>48</v>
+      </c>
+      <c r="B128" s="9"/>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129">
+        <v>48</v>
+      </c>
+      <c r="B129" s="9"/>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130">
+        <v>48</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131">
+        <v>48</v>
+      </c>
+      <c r="B131" s="9"/>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132">
+        <v>48</v>
+      </c>
+      <c r="B132" s="9"/>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133">
+        <v>50</v>
+      </c>
+      <c r="B133" s="9"/>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134">
+        <v>48</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135">
+        <v>48</v>
+      </c>
+      <c r="B135" s="8"/>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136">
+        <v>48</v>
+      </c>
+      <c r="B136" s="8"/>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137">
+        <v>48</v>
+      </c>
+      <c r="B137" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B130:B133"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B38"/>
+    <mergeCell ref="B39:B68"/>
+    <mergeCell ref="B70:B99"/>
+    <mergeCell ref="B100:B129"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/documents/PSI.xlsx
+++ b/documents/PSI.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20730" windowHeight="11760" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="20250" windowHeight="7995" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Request" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="Template" sheetId="4" r:id="rId4"/>
     <sheet name="Validations" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
+    <sheet name="Points" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="147">
   <si>
     <t>HeartBeat</t>
   </si>
@@ -198,9 +199,6 @@
     <t>Apply Currency Charge</t>
   </si>
   <si>
-    <t>Currency Type</t>
-  </si>
-  <si>
     <t>See Keys</t>
   </si>
   <si>
@@ -291,9 +289,6 @@
     <t>DataServices</t>
   </si>
   <si>
-    <t xml:space="preserve">Apply Tariff Volume </t>
-  </si>
-  <si>
     <t>101</t>
   </si>
   <si>
@@ -370,18 +365,6 @@
   </si>
   <si>
     <t>Other</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Unit Type</t>
-  </si>
-  <si>
-    <t>InfoParam1</t>
-  </si>
-  <si>
-    <t>InfoParam2</t>
   </si>
   <si>
     <t>Apply Tariff Volume</t>
@@ -439,14 +422,53 @@
     <t>In case the length is not valid</t>
   </si>
   <si>
-    <t>Cofirmation</t>
+    <t>Confirmation Message</t>
+  </si>
+  <si>
+    <t>Confirmation</t>
+  </si>
+  <si>
+    <t>Points:</t>
+  </si>
+  <si>
+    <t>Connection time out for FE should ideally be heartbeat interval * no of heartbeat retries, but user is free to set anything.</t>
+  </si>
+  <si>
+    <t>Talk to Anuj Jain about Help anchor files</t>
+  </si>
+  <si>
+    <t>Switch over case in case of PSI FE.</t>
+  </si>
+  <si>
+    <t>Disconnect Request :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kill to be handled in PSI Simulator. </t>
+  </si>
+  <si>
+    <t>disconnect connection only in case of no heartbeat (Message not need to be sent)</t>
+  </si>
+  <si>
+    <t>Read invalid message from Map Events sent by BE</t>
+  </si>
+  <si>
+    <t>How to identify send back to which connection object?</t>
+  </si>
+  <si>
+    <t>What to do in case invalid message length is received in input stream?</t>
+  </si>
+  <si>
+    <t>Send disconnect message in stop and stop and drain case.</t>
+  </si>
+  <si>
+    <t>OPEN POINTS TO DISCUSS WITH CA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,18 +485,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -489,22 +505,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -595,6 +610,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -629,6 +645,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -804,14 +821,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.7109375" customWidth="1"/>
@@ -827,7 +844,7 @@
     <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -844,7 +861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -861,7 +878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -875,7 +892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>14</v>
       </c>
@@ -889,9 +906,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
-        <v>68</v>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -906,7 +923,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>2</v>
       </c>
@@ -920,7 +937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>14</v>
       </c>
@@ -934,7 +951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>18</v>
       </c>
@@ -945,7 +962,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>20</v>
       </c>
@@ -956,7 +973,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -967,7 +984,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -984,7 +1001,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>2</v>
       </c>
@@ -998,7 +1015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -1012,7 +1029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>18</v>
       </c>
@@ -1023,7 +1040,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>20</v>
       </c>
@@ -1034,7 +1051,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>21</v>
       </c>
@@ -1045,7 +1062,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>42</v>
       </c>
@@ -1056,9 +1073,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -1073,7 +1090,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>2</v>
       </c>
@@ -1087,7 +1104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>14</v>
       </c>
@@ -1101,7 +1118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>18</v>
       </c>
@@ -1112,9 +1129,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C25">
         <v>30</v>
@@ -1123,9 +1140,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C26">
         <v>30</v>
@@ -1134,12 +1151,12 @@
         <v>19</v>
       </c>
       <c r="F26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="B27" t="s">
-        <v>72</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1148,9 +1165,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28">
         <v>30</v>
@@ -1159,9 +1176,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C29">
         <v>30</v>
@@ -1170,12 +1187,12 @@
         <v>19</v>
       </c>
       <c r="F29" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -1184,9 +1201,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -1195,15 +1212,15 @@
         <v>19</v>
       </c>
       <c r="G31" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
@@ -1215,24 +1232,24 @@
         <v>8</v>
       </c>
       <c r="E33">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="B34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="5">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="E34" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>14</v>
       </c>
@@ -1243,10 +1260,10 @@
         <v>9</v>
       </c>
       <c r="E35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>18</v>
       </c>
@@ -1257,7 +1274,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>43</v>
       </c>
@@ -1268,118 +1285,115 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
-      <c r="D39" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>134</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
         <v>8</v>
       </c>
-      <c r="E39">
+      <c r="E40">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="B40" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="6">
-        <v>1</v>
-      </c>
-      <c r="D40" s="6" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="5">
+        <v>1</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="B41" t="s">
+      <c r="E41" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>14</v>
       </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
         <v>9</v>
       </c>
-      <c r="E41">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="B42" t="s">
+      <c r="E42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>18</v>
       </c>
-      <c r="C42">
+      <c r="C43">
         <v>4</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="B43" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>43</v>
       </c>
-      <c r="C43">
+      <c r="C44">
         <v>8</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="B44" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>22</v>
       </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46" t="s">
-        <v>139</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>2</v>
-      </c>
-      <c r="D46" t="s">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>125</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
         <v>8</v>
       </c>
-      <c r="E46">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="B47" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C47" s="6">
-        <v>1</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="E47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -1387,372 +1401,25 @@
       <c r="D48" t="s">
         <v>9</v>
       </c>
-      <c r="E48">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="E48" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="B50" t="s">
-        <v>43</v>
-      </c>
-      <c r="C50">
+        <v>9</v>
+      </c>
+      <c r="E49">
         <v>8</v>
-      </c>
-      <c r="D50" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="B51" t="s">
-        <v>22</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" t="s">
-        <v>131</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53">
-        <v>2</v>
-      </c>
-      <c r="D53" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="30">
-      <c r="B54" t="s">
-        <v>2</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="B55" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57">
-        <v>2</v>
-      </c>
-      <c r="D57" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="B58" t="s">
-        <v>2</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="B59" t="s">
-        <v>14</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="B60" t="s">
-        <v>18</v>
-      </c>
-      <c r="C60">
-        <v>4</v>
-      </c>
-      <c r="D60" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="B61" t="s">
-        <v>20</v>
-      </c>
-      <c r="C61">
-        <v>30</v>
-      </c>
-      <c r="D61" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="B62" t="s">
-        <v>21</v>
-      </c>
-      <c r="C62">
-        <v>17</v>
-      </c>
-      <c r="D62" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="B63" t="s">
-        <v>42</v>
-      </c>
-      <c r="C63">
-        <v>32</v>
-      </c>
-      <c r="D63" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="B64" t="s">
-        <v>59</v>
-      </c>
-      <c r="C64">
-        <v>3</v>
-      </c>
-      <c r="D64" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" t="s">
-        <v>90</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C67" s="4">
-        <v>2</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E67" s="4">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="B68" t="s">
-        <v>2</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="B69" t="s">
-        <v>14</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69" t="s">
-        <v>9</v>
-      </c>
-      <c r="E69">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="B70" t="s">
-        <v>18</v>
-      </c>
-      <c r="C70">
-        <v>4</v>
-      </c>
-      <c r="D70" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="B71" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C71">
-        <v>30</v>
-      </c>
-      <c r="D71" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="B72" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C72">
-        <v>30</v>
-      </c>
-      <c r="D72" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="B73" t="s">
-        <v>72</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="B74" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C74">
-        <v>30</v>
-      </c>
-      <c r="D74" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="B75" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C75">
-        <v>30</v>
-      </c>
-      <c r="D75" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="B76" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C76">
-        <v>4</v>
-      </c>
-      <c r="D76" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="B77" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C77">
-        <v>4</v>
-      </c>
-      <c r="D77" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="B78" t="s">
-        <v>117</v>
-      </c>
-      <c r="C78">
-        <v>10</v>
-      </c>
-      <c r="D78" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="B79" t="s">
-        <v>118</v>
-      </c>
-      <c r="C79">
-        <v>4</v>
-      </c>
-      <c r="D79" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="B80" t="s">
-        <v>119</v>
-      </c>
-      <c r="C80">
-        <v>32</v>
-      </c>
-      <c r="D80" t="s">
-        <v>19</v>
-      </c>
-      <c r="F80" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6">
-      <c r="B81" t="s">
-        <v>120</v>
-      </c>
-      <c r="C81">
-        <v>32</v>
-      </c>
-      <c r="D81" t="s">
-        <v>19</v>
-      </c>
-      <c r="F81" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1762,14 +1429,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
@@ -1778,7 +1445,7 @@
     <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -1792,7 +1459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1809,7 +1476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -1823,7 +1490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>14</v>
       </c>
@@ -1837,7 +1504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1854,7 +1521,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>2</v>
       </c>
@@ -1868,7 +1535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>14</v>
       </c>
@@ -1882,7 +1549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>18</v>
       </c>
@@ -1893,7 +1560,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>22</v>
       </c>
@@ -1904,10 +1571,10 @@
         <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>51</v>
       </c>
@@ -1918,7 +1585,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1935,7 +1602,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>2</v>
       </c>
@@ -1949,7 +1616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -1963,7 +1630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>18</v>
       </c>
@@ -1974,7 +1641,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>43</v>
       </c>
@@ -1985,7 +1652,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>22</v>
       </c>
@@ -1996,27 +1663,27 @@
         <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="6">
-        <v>2</v>
-      </c>
-      <c r="D20" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>2</v>
       </c>
@@ -2030,7 +1697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>14</v>
       </c>
@@ -2044,7 +1711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>18</v>
       </c>
@@ -2055,7 +1722,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>43</v>
       </c>
@@ -2066,7 +1733,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>22</v>
       </c>
@@ -2077,24 +1744,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>127</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="6">
-        <v>2</v>
-      </c>
-      <c r="D27" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="5">
+        <v>2</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>2</v>
       </c>
@@ -2108,7 +1775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>14</v>
       </c>
@@ -2118,11 +1785,11 @@
       <c r="D29" t="s">
         <v>9</v>
       </c>
-      <c r="E29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="E29" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>18</v>
       </c>
@@ -2133,7 +1800,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>22</v>
       </c>
@@ -2143,25 +1810,28 @@
       <c r="D31" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="E31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>134</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="6">
-        <v>2</v>
-      </c>
-      <c r="D33" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="5">
+        <v>2</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>2</v>
       </c>
@@ -2175,7 +1845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>14</v>
       </c>
@@ -2186,10 +1856,10 @@
         <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>18</v>
       </c>
@@ -2200,7 +1870,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>22</v>
       </c>
@@ -2212,162 +1882,6 @@
       </c>
       <c r="E37">
         <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="4">
-        <v>2</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="B40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="B41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="B42" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42">
-        <v>4</v>
-      </c>
-      <c r="D42" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="B43" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43">
-        <v>8</v>
-      </c>
-      <c r="D43" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="B44" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" t="s">
-        <v>121</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" s="6">
-        <v>2</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="B47" t="s">
-        <v>2</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="B48" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4">
-      <c r="B49" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49">
-        <v>4</v>
-      </c>
-      <c r="D49" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="B50" t="s">
-        <v>43</v>
-      </c>
-      <c r="C50">
-        <v>8</v>
-      </c>
-      <c r="D50" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4">
-      <c r="B51" t="s">
-        <v>22</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2376,14 +1890,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -2395,7 +1909,7 @@
     <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2418,7 +1932,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2441,7 +1955,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2461,7 +1975,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D4">
         <v>3</v>
       </c>
@@ -2475,12 +1989,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>28</v>
@@ -2489,12 +2003,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>29</v>
@@ -2503,7 +2017,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>6</v>
       </c>
@@ -2520,12 +2034,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>31</v>
@@ -2534,7 +2048,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>10</v>
       </c>
@@ -2548,12 +2062,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D10">
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>32</v>
@@ -2562,15 +2076,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G13" s="3" t="s">
         <v>56</v>
       </c>
@@ -2578,10 +2092,10 @@
         <v>54</v>
       </c>
       <c r="I13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G14" s="3" t="s">
         <v>57</v>
       </c>
@@ -2592,40 +2106,40 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G15" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H15" t="s">
         <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="7:9">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H17" t="s">
         <v>13</v>
       </c>
       <c r="I17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="7:9">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="7:9">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G19" s="3" t="s">
         <v>26</v>
       </c>
@@ -2636,18 +2150,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="7:9">
+    <row r="20" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G20" s="3" t="s">
         <v>27</v>
       </c>
       <c r="H20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="7:9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G21" s="3" t="s">
         <v>28</v>
       </c>
@@ -2658,264 +2172,264 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="7:9">
+    <row r="22" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G22" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="7:9">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G23" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H23" t="s">
         <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="7:9">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G24" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H24" t="s">
         <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="7:9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G25" s="3" t="s">
         <v>30</v>
       </c>
       <c r="H25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I25" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="7:9">
+    <row r="27" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H27" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="7:9">
+    <row r="28" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G28" s="3" t="s">
         <v>57</v>
       </c>
       <c r="H28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G29" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="7:9">
-      <c r="G29" s="3" t="s">
+    <row r="30" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G30" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H30" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="7:9">
-      <c r="G30" s="3" t="s">
+    <row r="31" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G31" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H31" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="7:9">
-      <c r="G31" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H31" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="7:8">
+    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="7:8">
+    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G34" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G35" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="7:8">
-      <c r="G35" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H35" s="1" t="s">
+    <row r="36" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G36" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H36" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="7:8">
-      <c r="G36" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H36" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="38" spans="7:8">
+    <row r="38" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H38" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="7:8">
+    <row r="39" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G39" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G40" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H40" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G41" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H41" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="7:8">
-      <c r="G40" s="3" t="s">
+    <row r="42" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G42" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H42" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="7:8">
-      <c r="G41" s="3" t="s">
+    <row r="43" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G43" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H43" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="7:8">
-      <c r="G42" s="3" t="s">
+    <row r="44" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G44" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H44" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="7:8">
-      <c r="G43" s="3" t="s">
+    <row r="45" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G45" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H45" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="7:8">
-      <c r="G44" s="3" t="s">
+    <row r="46" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G46" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H46" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="7:8">
-      <c r="G45" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H45" t="s">
+    <row r="48" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G48" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="46" spans="7:8">
-      <c r="G46" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H46" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="48" spans="7:8">
-      <c r="G48" t="s">
-        <v>107</v>
       </c>
       <c r="H48" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="7:8">
+    <row r="49" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G49" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H49" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G50" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H50" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G51" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H51" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="7:8">
-      <c r="G50" s="3" t="s">
+    <row r="52" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G52" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H52" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="51" spans="7:8">
-      <c r="G51" s="3" t="s">
+    <row r="53" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G53" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H53" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="7:8">
-      <c r="G52" s="3" t="s">
+    <row r="54" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G54" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H54" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="53" spans="7:8">
-      <c r="G53" s="3" t="s">
+    <row r="55" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G55" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H55" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="54" spans="7:8">
-      <c r="G54" s="3" t="s">
+    <row r="56" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G56" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H56" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="55" spans="7:8">
-      <c r="G55" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H55" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="56" spans="7:8">
-      <c r="G56" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H56" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2924,47 +2438,47 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="98" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2973,20 +2487,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="M93" sqref="M93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -2994,13 +2508,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>135</v>
       </c>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3008,7 +2522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -3016,7 +2530,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -3024,897 +2538,897 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
       <c r="B6" s="8"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
       <c r="B7" s="8"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>34</v>
       </c>
       <c r="B8" s="8"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>51</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="B9" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>56</v>
       </c>
-      <c r="B10" s="9"/>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>48</v>
       </c>
-      <c r="B11" s="9"/>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>54</v>
       </c>
-      <c r="B12" s="9"/>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>55</v>
       </c>
-      <c r="B13" s="9"/>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>56</v>
       </c>
-      <c r="B14" s="9"/>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>52</v>
       </c>
-      <c r="B15" s="9"/>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>53</v>
       </c>
-      <c r="B16" s="9"/>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>48</v>
       </c>
-      <c r="B17" s="9"/>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>50</v>
       </c>
-      <c r="B18" s="9"/>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>50</v>
       </c>
-      <c r="B19" s="9"/>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>54</v>
       </c>
-      <c r="B20" s="9"/>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>32</v>
       </c>
-      <c r="B21" s="9"/>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>32</v>
       </c>
-      <c r="B22" s="9"/>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>32</v>
       </c>
-      <c r="B23" s="9"/>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="B23" s="7"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>32</v>
       </c>
-      <c r="B24" s="9"/>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>32</v>
       </c>
-      <c r="B25" s="9"/>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>32</v>
       </c>
-      <c r="B26" s="9"/>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>32</v>
       </c>
-      <c r="B27" s="9"/>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>32</v>
       </c>
-      <c r="B28" s="9"/>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>32</v>
       </c>
-      <c r="B29" s="9"/>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>32</v>
       </c>
-      <c r="B30" s="9"/>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>32</v>
       </c>
-      <c r="B31" s="9"/>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>32</v>
       </c>
-      <c r="B32" s="9"/>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="B32" s="7"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="9"/>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="B33" s="7"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" s="9"/>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="B34" s="7"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>32</v>
       </c>
-      <c r="B35" s="9"/>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="B35" s="7"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>32</v>
       </c>
-      <c r="B36" s="9"/>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="B36" s="7"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>32</v>
       </c>
-      <c r="B37" s="9"/>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="B37" s="7"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>32</v>
       </c>
-      <c r="B38" s="9"/>
-    </row>
-    <row r="39" spans="1:2" ht="45" customHeight="1">
+      <c r="B38" s="7"/>
+    </row>
+    <row r="39" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>51</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="B39" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>56</v>
       </c>
-      <c r="B40" s="9"/>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="B40" s="7"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>48</v>
       </c>
-      <c r="B41" s="9"/>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="B41" s="7"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>54</v>
       </c>
-      <c r="B42" s="9"/>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="B42" s="7"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>55</v>
       </c>
-      <c r="B43" s="9"/>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="B43" s="7"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>50</v>
       </c>
-      <c r="B44" s="9"/>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="B44" s="7"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>48</v>
       </c>
-      <c r="B45" s="9"/>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="B45" s="7"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>53</v>
       </c>
-      <c r="B46" s="9"/>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="B46" s="7"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>52</v>
       </c>
-      <c r="B47" s="9"/>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="B47" s="7"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>52</v>
       </c>
-      <c r="B48" s="9"/>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="B48" s="7"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>55</v>
       </c>
-      <c r="B49" s="9"/>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="B49" s="7"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>53</v>
       </c>
-      <c r="B50" s="9"/>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="B50" s="7"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>32</v>
       </c>
-      <c r="B51" s="9"/>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="B51" s="7"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>32</v>
       </c>
-      <c r="B52" s="9"/>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="B52" s="7"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>32</v>
       </c>
-      <c r="B53" s="9"/>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="B53" s="7"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>32</v>
       </c>
-      <c r="B54" s="9"/>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="B54" s="7"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>32</v>
       </c>
-      <c r="B55" s="9"/>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="B55" s="7"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>32</v>
       </c>
-      <c r="B56" s="9"/>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="B56" s="7"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>32</v>
       </c>
-      <c r="B57" s="9"/>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="B57" s="7"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>32</v>
       </c>
-      <c r="B58" s="9"/>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="B58" s="7"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>32</v>
       </c>
-      <c r="B59" s="9"/>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="B59" s="7"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>32</v>
       </c>
-      <c r="B60" s="9"/>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="B60" s="7"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>32</v>
       </c>
-      <c r="B61" s="9"/>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="B61" s="7"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>32</v>
       </c>
-      <c r="B62" s="9"/>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="B62" s="7"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>32</v>
       </c>
-      <c r="B63" s="9"/>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="B63" s="7"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>32</v>
       </c>
-      <c r="B64" s="9"/>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="B64" s="7"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>32</v>
       </c>
-      <c r="B65" s="9"/>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="B65" s="7"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>32</v>
       </c>
-      <c r="B66" s="9"/>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="B66" s="7"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>32</v>
       </c>
-      <c r="B67" s="9"/>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="B67" s="7"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>32</v>
       </c>
-      <c r="B68" s="9"/>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="B68" s="7"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="30" customHeight="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>51</v>
       </c>
-      <c r="B70" s="9" t="s">
-        <v>81</v>
+      <c r="B70" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="C70">
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>56</v>
       </c>
-      <c r="B71" s="9"/>
+      <c r="B71" s="7"/>
       <c r="C71">
         <v>56</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>48</v>
       </c>
-      <c r="B72" s="9"/>
+      <c r="B72" s="7"/>
       <c r="C72">
         <v>48</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>54</v>
       </c>
-      <c r="B73" s="9"/>
+      <c r="B73" s="7"/>
       <c r="C73">
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>55</v>
       </c>
-      <c r="B74" s="9"/>
+      <c r="B74" s="7"/>
       <c r="C74">
         <v>55</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>55</v>
       </c>
-      <c r="B75" s="9"/>
+      <c r="B75" s="7"/>
       <c r="C75">
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>54</v>
       </c>
-      <c r="B76" s="9"/>
+      <c r="B76" s="7"/>
       <c r="C76">
         <v>54</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>55</v>
       </c>
-      <c r="B77" s="9"/>
+      <c r="B77" s="7"/>
       <c r="C77">
         <v>55</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>48</v>
       </c>
-      <c r="B78" s="9"/>
+      <c r="B78" s="7"/>
       <c r="C78">
         <v>48</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>57</v>
       </c>
-      <c r="B79" s="9"/>
+      <c r="B79" s="7"/>
       <c r="C79">
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>50</v>
       </c>
-      <c r="B80" s="9"/>
+      <c r="B80" s="7"/>
       <c r="C80">
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>53</v>
       </c>
-      <c r="B81" s="9"/>
+      <c r="B81" s="7"/>
       <c r="C81">
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>32</v>
       </c>
-      <c r="B82" s="9"/>
+      <c r="B82" s="7"/>
       <c r="C82">
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>32</v>
       </c>
-      <c r="B83" s="9"/>
+      <c r="B83" s="7"/>
       <c r="C83">
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>32</v>
       </c>
-      <c r="B84" s="9"/>
+      <c r="B84" s="7"/>
       <c r="C84">
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>32</v>
       </c>
-      <c r="B85" s="9"/>
+      <c r="B85" s="7"/>
       <c r="C85">
         <v>32</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>32</v>
       </c>
-      <c r="B86" s="9"/>
+      <c r="B86" s="7"/>
       <c r="C86">
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>32</v>
       </c>
-      <c r="B87" s="9"/>
+      <c r="B87" s="7"/>
       <c r="C87">
         <v>32</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>32</v>
       </c>
-      <c r="B88" s="9"/>
+      <c r="B88" s="7"/>
       <c r="C88">
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>32</v>
       </c>
-      <c r="B89" s="9"/>
+      <c r="B89" s="7"/>
       <c r="C89">
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>32</v>
       </c>
-      <c r="B90" s="9"/>
+      <c r="B90" s="7"/>
       <c r="C90">
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>32</v>
       </c>
-      <c r="B91" s="9"/>
+      <c r="B91" s="7"/>
       <c r="C91">
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>32</v>
       </c>
-      <c r="B92" s="9"/>
+      <c r="B92" s="7"/>
       <c r="C92">
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>32</v>
       </c>
-      <c r="B93" s="9"/>
+      <c r="B93" s="7"/>
       <c r="C93">
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>32</v>
       </c>
-      <c r="B94" s="9"/>
+      <c r="B94" s="7"/>
       <c r="C94">
         <v>32</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>32</v>
       </c>
-      <c r="B95" s="9"/>
+      <c r="B95" s="7"/>
       <c r="C95">
         <v>32</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>32</v>
       </c>
-      <c r="B96" s="9"/>
+      <c r="B96" s="7"/>
       <c r="C96">
         <v>32</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>32</v>
       </c>
-      <c r="B97" s="9"/>
+      <c r="B97" s="7"/>
       <c r="C97">
         <v>32</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>32</v>
       </c>
-      <c r="B98" s="9"/>
+      <c r="B98" s="7"/>
       <c r="C98">
         <v>32</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>32</v>
       </c>
-      <c r="B99" s="9"/>
+      <c r="B99" s="7"/>
       <c r="C99">
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="45" customHeight="1">
+    <row r="100" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>48</v>
       </c>
-      <c r="B100" s="9" t="s">
+      <c r="B100" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>48</v>
+      </c>
+      <c r="B101" s="7"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>48</v>
+      </c>
+      <c r="B102" s="7"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>48</v>
+      </c>
+      <c r="B103" s="7"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>48</v>
+      </c>
+      <c r="B104" s="7"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>48</v>
+      </c>
+      <c r="B105" s="7"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>48</v>
+      </c>
+      <c r="B106" s="7"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>48</v>
+      </c>
+      <c r="B107" s="7"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>48</v>
+      </c>
+      <c r="B108" s="7"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>48</v>
+      </c>
+      <c r="B109" s="7"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>48</v>
+      </c>
+      <c r="B110" s="7"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>48</v>
+      </c>
+      <c r="B111" s="7"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>48</v>
+      </c>
+      <c r="B112" s="7"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>48</v>
+      </c>
+      <c r="B113" s="7"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>48</v>
+      </c>
+      <c r="B114" s="7"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>48</v>
+      </c>
+      <c r="B115" s="7"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>48</v>
+      </c>
+      <c r="B116" s="7"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>48</v>
+      </c>
+      <c r="B117" s="7"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>48</v>
+      </c>
+      <c r="B118" s="7"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>48</v>
+      </c>
+      <c r="B119" s="7"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>48</v>
+      </c>
+      <c r="B120" s="7"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>48</v>
+      </c>
+      <c r="B121" s="7"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>48</v>
+      </c>
+      <c r="B122" s="7"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>48</v>
+      </c>
+      <c r="B123" s="7"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>48</v>
+      </c>
+      <c r="B124" s="7"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>48</v>
+      </c>
+      <c r="B125" s="7"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>48</v>
+      </c>
+      <c r="B126" s="7"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>48</v>
+      </c>
+      <c r="B127" s="7"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>48</v>
+      </c>
+      <c r="B128" s="7"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>48</v>
+      </c>
+      <c r="B129" s="7"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>48</v>
+      </c>
+      <c r="B130" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
-      <c r="A101">
-        <v>48</v>
-      </c>
-      <c r="B101" s="9"/>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102">
-        <v>48</v>
-      </c>
-      <c r="B102" s="9"/>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103">
-        <v>48</v>
-      </c>
-      <c r="B103" s="9"/>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104">
-        <v>48</v>
-      </c>
-      <c r="B104" s="9"/>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105">
-        <v>48</v>
-      </c>
-      <c r="B105" s="9"/>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106">
-        <v>48</v>
-      </c>
-      <c r="B106" s="9"/>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107">
-        <v>48</v>
-      </c>
-      <c r="B107" s="9"/>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108">
-        <v>48</v>
-      </c>
-      <c r="B108" s="9"/>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109">
-        <v>48</v>
-      </c>
-      <c r="B109" s="9"/>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110">
-        <v>48</v>
-      </c>
-      <c r="B110" s="9"/>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111">
-        <v>48</v>
-      </c>
-      <c r="B111" s="9"/>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112">
-        <v>48</v>
-      </c>
-      <c r="B112" s="9"/>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113">
-        <v>48</v>
-      </c>
-      <c r="B113" s="9"/>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114">
-        <v>48</v>
-      </c>
-      <c r="B114" s="9"/>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115">
-        <v>48</v>
-      </c>
-      <c r="B115" s="9"/>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116">
-        <v>48</v>
-      </c>
-      <c r="B116" s="9"/>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117">
-        <v>48</v>
-      </c>
-      <c r="B117" s="9"/>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118">
-        <v>48</v>
-      </c>
-      <c r="B118" s="9"/>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119">
-        <v>48</v>
-      </c>
-      <c r="B119" s="9"/>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120">
-        <v>48</v>
-      </c>
-      <c r="B120" s="9"/>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121">
-        <v>48</v>
-      </c>
-      <c r="B121" s="9"/>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122">
-        <v>48</v>
-      </c>
-      <c r="B122" s="9"/>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123">
-        <v>48</v>
-      </c>
-      <c r="B123" s="9"/>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124">
-        <v>48</v>
-      </c>
-      <c r="B124" s="9"/>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125">
-        <v>48</v>
-      </c>
-      <c r="B125" s="9"/>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126">
-        <v>48</v>
-      </c>
-      <c r="B126" s="9"/>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127">
-        <v>48</v>
-      </c>
-      <c r="B127" s="9"/>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128">
-        <v>48</v>
-      </c>
-      <c r="B128" s="9"/>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129">
-        <v>48</v>
-      </c>
-      <c r="B129" s="9"/>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130">
-        <v>48</v>
-      </c>
-      <c r="B130" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>48</v>
       </c>
-      <c r="B131" s="9"/>
-    </row>
-    <row r="132" spans="1:2">
+      <c r="B131" s="7"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>48</v>
       </c>
-      <c r="B132" s="9"/>
-    </row>
-    <row r="133" spans="1:2">
+      <c r="B132" s="7"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>50</v>
       </c>
-      <c r="B133" s="9"/>
-    </row>
-    <row r="134" spans="1:2">
+      <c r="B133" s="7"/>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>48</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>48</v>
       </c>
       <c r="B135" s="8"/>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>48</v>
       </c>
       <c r="B136" s="8"/>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>48</v>
       </c>
@@ -3933,4 +3447,83 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="110.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/documents/PSI.xlsx
+++ b/documents/PSI.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20250" windowHeight="7995" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="20250" windowHeight="7995" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Request" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,16 @@
     <sheet name="Validations" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
     <sheet name="Points" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet3" sheetId="10" r:id="rId9"/>
+    <sheet name="Sheet4" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="294">
   <si>
     <t>HeartBeat</t>
   </si>
@@ -462,13 +465,455 @@
   </si>
   <si>
     <t>OPEN POINTS TO DISCUSS WITH CA</t>
+  </si>
+  <si>
+    <t>Wrong Stack Trace information is seen in log for HT-TT-TokenSeparated-ASCII decoding failure</t>
+  </si>
+  <si>
+    <t>Wrong Stack Trace information is showing in log for MIXED and TT-MIXED decoding failure</t>
+  </si>
+  <si>
+    <t>Wrong Stack Trace information is seen in log for HT-TTBER decoding failure</t>
+  </si>
+  <si>
+    <t>Wrong Stack Trace information is showing in log for HT-ISO decoding failure</t>
+  </si>
+  <si>
+    <t>Wrong Stack Trace information is seen in log for HT-TT-ISO decoding failure</t>
+  </si>
+  <si>
+    <t>[MM15.x OLM PSI PC]PSI activities can be seen in inactive mode without license in BLDM</t>
+  </si>
+  <si>
+    <t>Wrong Stack Trace information is showing in log for HT-MIXED decoding failure</t>
+  </si>
+  <si>
+    <t>Wrong Stack Trace information is seen in log for HT-TT-PACKED decoding failure</t>
+  </si>
+  <si>
+    <t>Wrong Stack Trace information is seen in log for HT-TT-MIXED decoding failure</t>
+  </si>
+  <si>
+    <t>Stacktrace information is not showing in log for HT-BER decoding failure</t>
+  </si>
+  <si>
+    <t>##LEGACYS## FNT Processing issue is not getting raised at the distributor</t>
+  </si>
+  <si>
+    <t>##LEGACYS## FNT Processing issue is not getting raised at the distributor(TT-ISO encoder and decode)</t>
+  </si>
+  <si>
+    <t>##LEGACYS## FNT Decode issue is not getting raised at the collector (TT-ISO encoder and decode)</t>
+  </si>
+  <si>
+    <t>##LEGACYS##FNT Processing issue is not getting raised at the distributor(PACKED encoder and decoder)</t>
+  </si>
+  <si>
+    <t>##LEGACYS##FNT Processing issue is not getting raised at the distributor(TT-PACKED enc and dec)</t>
+  </si>
+  <si>
+    <t>##LEGACYS## FNT Decode issue is not getting raised at the collector(TT-PACKED encoder and decoder)</t>
+  </si>
+  <si>
+    <t>Wrong Stack Trace information is showing in log for HT-FILE decoding failure</t>
+  </si>
+  <si>
+    <t>MM15.x : CLI is getting hanged if non admin user try to Ack/Cease alarms</t>
+  </si>
+  <si>
+    <t>MM15.x PCP : BLDM GUI doesn;t come back when ALT+TAB is used</t>
+  </si>
+  <si>
+    <t>MM15.x: Getting error while ceasing alarm via web UI</t>
+  </si>
+  <si>
+    <t>CPI chnages in NIR for MSC has some issue</t>
+  </si>
+  <si>
+    <t>Platform alarm is coming with wrong information after restarting manager and server</t>
+  </si>
+  <si>
+    <t>MM15.x: Protected File config are not getting validated</t>
+  </si>
+  <si>
+    <t>Stack Trace Informations should be printed in separate line.</t>
+  </si>
+  <si>
+    <t>Stacktrace information is not showing in log for BER decoding failure</t>
+  </si>
+  <si>
+    <t>HW48366</t>
+  </si>
+  <si>
+    <t>HW48373</t>
+  </si>
+  <si>
+    <t>HW48118</t>
+  </si>
+  <si>
+    <t>HW48099</t>
+  </si>
+  <si>
+    <t>HW48104</t>
+  </si>
+  <si>
+    <t>HW48114</t>
+  </si>
+  <si>
+    <t>HW48138</t>
+  </si>
+  <si>
+    <t>HW48141</t>
+  </si>
+  <si>
+    <t>HW48166</t>
+  </si>
+  <si>
+    <t>HW47702</t>
+  </si>
+  <si>
+    <t>HW47775</t>
+  </si>
+  <si>
+    <t>HW47785</t>
+  </si>
+  <si>
+    <t>HW47787</t>
+  </si>
+  <si>
+    <t>HW47795</t>
+  </si>
+  <si>
+    <t>HW47803</t>
+  </si>
+  <si>
+    <t>HW47825</t>
+  </si>
+  <si>
+    <t>HW47831</t>
+  </si>
+  <si>
+    <t>HW47314</t>
+  </si>
+  <si>
+    <t>HW46793</t>
+  </si>
+  <si>
+    <t>HW46802</t>
+  </si>
+  <si>
+    <t>HW45974</t>
+  </si>
+  <si>
+    <t>HW46028</t>
+  </si>
+  <si>
+    <t>HW45377</t>
+  </si>
+  <si>
+    <t>HW44150</t>
+  </si>
+  <si>
+    <t>HW44217</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>CPI</t>
+  </si>
+  <si>
+    <t>Desription</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>MM15.x : WEBUI doesn't show the raised alarms in sorted order</t>
+  </si>
+  <si>
+    <t>MM15.x : Alarms Synchronisation in ESA failed with Manager</t>
+  </si>
+  <si>
+    <t>MM15.x:BGwRaiseAlarm is throwingTCP Socket Message</t>
+  </si>
+  <si>
+    <t>Alarms are not coming in sequential order in ymer GUI if show pagesize is 10</t>
+  </si>
+  <si>
+    <t>Spelling Mistake in Alarm Parameters</t>
+  </si>
+  <si>
+    <t>Alarm counter remains 1 when going to raise 100 alarms for the first time via "alarm"</t>
+  </si>
+  <si>
+    <t>MM15.x: No N/w Elements are defined in NIR for "Changes from Multi Mediation 8 to Multi Mediation15"</t>
+  </si>
+  <si>
+    <t>On ack+cease over 300,inconsistency between DB and GUI in alarm state(MM DB Down)</t>
+  </si>
+  <si>
+    <t>Not getting proper return value of "uniqueDUPAlarm" in processor log</t>
+  </si>
+  <si>
+    <t>In formatter window horizontal scrolling not possible if alarm description provided is too long</t>
+  </si>
+  <si>
+    <t>Not able to show alarm description upto 4000 characters in additional text</t>
+  </si>
+  <si>
+    <t>MM15.x : Mismatch of values in figures and their descriptions in sections In DUP Reference Guide</t>
+  </si>
+  <si>
+    <t>MM15.x : Scalable config not getting started on 2nd node if ProcessManager is killed twice on Node1</t>
+  </si>
+  <si>
+    <t>MM DB is going down when ceasing 1000 alarms at a time</t>
+  </si>
+  <si>
+    <t>MM15.x 303 Alarm is not getting raised as separate alarm for alarm Api in Dup logic with 2 collector</t>
+  </si>
+  <si>
+    <t>MM15.x : Instead of Activation, Provision should be used in alarm raised</t>
+  </si>
+  <si>
+    <t>MM15.x:ESME is not taking special character $ in password while connecting to SMS Server</t>
+  </si>
+  <si>
+    <t>MM15.x:CPI : Multiple findings on the document for IMS 2017B DROP1</t>
+  </si>
+  <si>
+    <t>MM15.x:Online: Incorrect SFTP port in Front End Intercom-FE</t>
+  </si>
+  <si>
+    <t>[MM15.x] :: Job Manager core while running MNP</t>
+  </si>
+  <si>
+    <t>[MM15.x] Core of 30 GB for logmanager is there for MNP</t>
+  </si>
+  <si>
+    <t>[MM15.x] StopNDrain with multiple ScalConsldtr few files are still left for procesng in storage dir</t>
+  </si>
+  <si>
+    <t>Distributor Append Use cases documentation needs to be improved</t>
+  </si>
+  <si>
+    <t>Getting cores of LOG managers while running MNP</t>
+  </si>
+  <si>
+    <t>15.x DUP Function are not updated after run time replace on web GUI</t>
+  </si>
+  <si>
+    <t>ICP 1404 &lt;Memory leak during configuration run&gt;</t>
+  </si>
+  <si>
+    <t>Memory not released BGwLogMgr</t>
+  </si>
+  <si>
+    <t>MM15.x : After server restart, switch processes through CLI command "mnpswitch" get stuck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HW43330   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HW43349   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HW43479   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HW39894   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HW39947   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HW38903   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HW39079   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HW38590   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HW38727   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HW36274   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HW36359   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HW35430   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HW35083   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HW35101   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HW22899   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HW21046   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HW16589   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HW13109   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HW10573   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HV99821   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HV99490   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HV99202   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HV95246   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HV94933   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HV87387   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HV79477   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HV79483   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HV58834   </t>
+  </si>
+  <si>
+    <t>Java (Product Knowledge)</t>
+  </si>
+  <si>
+    <t>Java Complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java </t>
+  </si>
+  <si>
+    <t>Conup issue C++</t>
+  </si>
+  <si>
+    <t>Java Complex (Product Knowledge)</t>
+  </si>
+  <si>
+    <t>Java (YMER)</t>
+  </si>
+  <si>
+    <t>Java + C++   (Product Knowledge)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java Complex (Product Knowledge) </t>
+  </si>
+  <si>
+    <t>Not sure</t>
+  </si>
+  <si>
+    <t>(Product Knowledge)</t>
+  </si>
+  <si>
+    <t>PSI Client not able to send single request. (All 5 requests are being sent in one go)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only one client/server has been deployed. FnT can not happen parallely </t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSI Simulator was not able to connect to VDA </t>
+  </si>
+  <si>
+    <t>Days Afffected</t>
+  </si>
+  <si>
+    <t>PSI Simulator clean up messes up the PSISim symlink and that stops our testing.</t>
+  </si>
+  <si>
+    <t>PSI Client not sending all the requests. 3 are not available till date (ValidateSubscriber, Appply Charge and Invalid Request)</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Resolved</t>
+  </si>
+  <si>
+    <t>Resolution</t>
+  </si>
+  <si>
+    <t>Network issue at our end</t>
+  </si>
+  <si>
+    <t>Not resolved</t>
+  </si>
+  <si>
+    <t>We have taken back up of the file as of now</t>
+  </si>
+  <si>
+    <t>Configuration issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raised </t>
+  </si>
+  <si>
+    <t>21st Nov</t>
+  </si>
+  <si>
+    <t>23rd Nov</t>
+  </si>
+  <si>
+    <t>27th Nov</t>
+  </si>
+  <si>
+    <t>28th Nov</t>
+  </si>
+  <si>
+    <t>PSI Server not sending correct heart beat message.</t>
+  </si>
+  <si>
+    <t>Confirmed</t>
+  </si>
+  <si>
+    <t>Perfomance test case can not be run with current simulator
+Single request needs to be sent in a loop</t>
+  </si>
+  <si>
+    <t>PSISimulators need to be installed on 3 new VM's</t>
+  </si>
+  <si>
+    <t>Issu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -484,16 +929,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF3A6EA5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -501,11 +965,98 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFC0C0C0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFC0C0C0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -520,6 +1071,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1428,12 +2003,211 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="84.140625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="12.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="G2" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="G3" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="G6" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
+        <v>6</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="G7" s="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>8</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3453,8 +4227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3526,4 +4300,815 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A51" activeCellId="15" sqref="A19:XFD19 A20:XFD20 A21:XFD21 A23:XFD23 A27:XFD27 A28:XFD28 A30:XFD30 A31:XFD31 A32:XFD32 A34:XFD34 A40:XFD40 A43:XFD43 A45:XFD45 A36:XFD36 A37:XFD37 A51:XFD51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="96.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="86" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>241</v>
+      </c>
+      <c r="B12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>244</v>
+      </c>
+      <c r="B13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C13" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B14" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>249</v>
+      </c>
+      <c r="B15" t="s">
+        <v>221</v>
+      </c>
+      <c r="C15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>255</v>
+      </c>
+      <c r="B16" t="s">
+        <v>227</v>
+      </c>
+      <c r="C16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/documents/PSI.xlsx
+++ b/documents/PSI.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20250" windowHeight="7995" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="20250" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Request" sheetId="1" r:id="rId1"/>
@@ -1066,12 +1066,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1095,6 +1089,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1399,8 +1399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2007,7 +2007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -2023,179 +2023,179 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="16" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="16">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="A4" s="16">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+      <c r="A5" s="16">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+      <c r="A6" s="16">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
+      <c r="A7" s="16">
         <v>6</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="16">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+      <c r="A8" s="16">
         <v>7</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
+      <c r="A9" s="16">
         <v>8</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3278,7 +3278,7 @@
       <c r="A1">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3286,7 +3286,7 @@
       <c r="A2">
         <v>135</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="18"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -3308,7 +3308,7 @@
       <c r="A5">
         <v>0</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3316,25 +3316,25 @@
       <c r="A6">
         <v>0</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="18"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="18"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>34</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="18"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>51</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="17" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3342,181 +3342,181 @@
       <c r="A10">
         <v>56</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="17"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>48</v>
       </c>
-      <c r="B11" s="7"/>
+      <c r="B11" s="17"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>54</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="17"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>55</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="17"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>56</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="17"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>52</v>
       </c>
-      <c r="B15" s="7"/>
+      <c r="B15" s="17"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>53</v>
       </c>
-      <c r="B16" s="7"/>
+      <c r="B16" s="17"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>48</v>
       </c>
-      <c r="B17" s="7"/>
+      <c r="B17" s="17"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>50</v>
       </c>
-      <c r="B18" s="7"/>
+      <c r="B18" s="17"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>50</v>
       </c>
-      <c r="B19" s="7"/>
+      <c r="B19" s="17"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>54</v>
       </c>
-      <c r="B20" s="7"/>
+      <c r="B20" s="17"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>32</v>
       </c>
-      <c r="B21" s="7"/>
+      <c r="B21" s="17"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>32</v>
       </c>
-      <c r="B22" s="7"/>
+      <c r="B22" s="17"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>32</v>
       </c>
-      <c r="B23" s="7"/>
+      <c r="B23" s="17"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>32</v>
       </c>
-      <c r="B24" s="7"/>
+      <c r="B24" s="17"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>32</v>
       </c>
-      <c r="B25" s="7"/>
+      <c r="B25" s="17"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>32</v>
       </c>
-      <c r="B26" s="7"/>
+      <c r="B26" s="17"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>32</v>
       </c>
-      <c r="B27" s="7"/>
+      <c r="B27" s="17"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>32</v>
       </c>
-      <c r="B28" s="7"/>
+      <c r="B28" s="17"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>32</v>
       </c>
-      <c r="B29" s="7"/>
+      <c r="B29" s="17"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>32</v>
       </c>
-      <c r="B30" s="7"/>
+      <c r="B30" s="17"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>32</v>
       </c>
-      <c r="B31" s="7"/>
+      <c r="B31" s="17"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>32</v>
       </c>
-      <c r="B32" s="7"/>
+      <c r="B32" s="17"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="7"/>
+      <c r="B33" s="17"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" s="7"/>
+      <c r="B34" s="17"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>32</v>
       </c>
-      <c r="B35" s="7"/>
+      <c r="B35" s="17"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>32</v>
       </c>
-      <c r="B36" s="7"/>
+      <c r="B36" s="17"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>32</v>
       </c>
-      <c r="B37" s="7"/>
+      <c r="B37" s="17"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>32</v>
       </c>
-      <c r="B38" s="7"/>
+      <c r="B38" s="17"/>
     </row>
     <row r="39" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>51</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="17" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3524,175 +3524,175 @@
       <c r="A40">
         <v>56</v>
       </c>
-      <c r="B40" s="7"/>
+      <c r="B40" s="17"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>48</v>
       </c>
-      <c r="B41" s="7"/>
+      <c r="B41" s="17"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>54</v>
       </c>
-      <c r="B42" s="7"/>
+      <c r="B42" s="17"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>55</v>
       </c>
-      <c r="B43" s="7"/>
+      <c r="B43" s="17"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>50</v>
       </c>
-      <c r="B44" s="7"/>
+      <c r="B44" s="17"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>48</v>
       </c>
-      <c r="B45" s="7"/>
+      <c r="B45" s="17"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>53</v>
       </c>
-      <c r="B46" s="7"/>
+      <c r="B46" s="17"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>52</v>
       </c>
-      <c r="B47" s="7"/>
+      <c r="B47" s="17"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>52</v>
       </c>
-      <c r="B48" s="7"/>
+      <c r="B48" s="17"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>55</v>
       </c>
-      <c r="B49" s="7"/>
+      <c r="B49" s="17"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>53</v>
       </c>
-      <c r="B50" s="7"/>
+      <c r="B50" s="17"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>32</v>
       </c>
-      <c r="B51" s="7"/>
+      <c r="B51" s="17"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>32</v>
       </c>
-      <c r="B52" s="7"/>
+      <c r="B52" s="17"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>32</v>
       </c>
-      <c r="B53" s="7"/>
+      <c r="B53" s="17"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>32</v>
       </c>
-      <c r="B54" s="7"/>
+      <c r="B54" s="17"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>32</v>
       </c>
-      <c r="B55" s="7"/>
+      <c r="B55" s="17"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>32</v>
       </c>
-      <c r="B56" s="7"/>
+      <c r="B56" s="17"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>32</v>
       </c>
-      <c r="B57" s="7"/>
+      <c r="B57" s="17"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>32</v>
       </c>
-      <c r="B58" s="7"/>
+      <c r="B58" s="17"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>32</v>
       </c>
-      <c r="B59" s="7"/>
+      <c r="B59" s="17"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>32</v>
       </c>
-      <c r="B60" s="7"/>
+      <c r="B60" s="17"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>32</v>
       </c>
-      <c r="B61" s="7"/>
+      <c r="B61" s="17"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>32</v>
       </c>
-      <c r="B62" s="7"/>
+      <c r="B62" s="17"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>32</v>
       </c>
-      <c r="B63" s="7"/>
+      <c r="B63" s="17"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>32</v>
       </c>
-      <c r="B64" s="7"/>
+      <c r="B64" s="17"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>32</v>
       </c>
-      <c r="B65" s="7"/>
+      <c r="B65" s="17"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>32</v>
       </c>
-      <c r="B66" s="7"/>
+      <c r="B66" s="17"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>32</v>
       </c>
-      <c r="B67" s="7"/>
+      <c r="B67" s="17"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>32</v>
       </c>
-      <c r="B68" s="7"/>
+      <c r="B68" s="17"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
@@ -3706,7 +3706,7 @@
       <c r="A70">
         <v>51</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="17" t="s">
         <v>80</v>
       </c>
       <c r="C70">
@@ -3717,7 +3717,7 @@
       <c r="A71">
         <v>56</v>
       </c>
-      <c r="B71" s="7"/>
+      <c r="B71" s="17"/>
       <c r="C71">
         <v>56</v>
       </c>
@@ -3726,7 +3726,7 @@
       <c r="A72">
         <v>48</v>
       </c>
-      <c r="B72" s="7"/>
+      <c r="B72" s="17"/>
       <c r="C72">
         <v>48</v>
       </c>
@@ -3735,7 +3735,7 @@
       <c r="A73">
         <v>54</v>
       </c>
-      <c r="B73" s="7"/>
+      <c r="B73" s="17"/>
       <c r="C73">
         <v>54</v>
       </c>
@@ -3744,7 +3744,7 @@
       <c r="A74">
         <v>55</v>
       </c>
-      <c r="B74" s="7"/>
+      <c r="B74" s="17"/>
       <c r="C74">
         <v>55</v>
       </c>
@@ -3753,7 +3753,7 @@
       <c r="A75">
         <v>55</v>
       </c>
-      <c r="B75" s="7"/>
+      <c r="B75" s="17"/>
       <c r="C75">
         <v>55</v>
       </c>
@@ -3762,7 +3762,7 @@
       <c r="A76">
         <v>54</v>
       </c>
-      <c r="B76" s="7"/>
+      <c r="B76" s="17"/>
       <c r="C76">
         <v>54</v>
       </c>
@@ -3771,7 +3771,7 @@
       <c r="A77">
         <v>55</v>
       </c>
-      <c r="B77" s="7"/>
+      <c r="B77" s="17"/>
       <c r="C77">
         <v>55</v>
       </c>
@@ -3780,7 +3780,7 @@
       <c r="A78">
         <v>48</v>
       </c>
-      <c r="B78" s="7"/>
+      <c r="B78" s="17"/>
       <c r="C78">
         <v>48</v>
       </c>
@@ -3789,7 +3789,7 @@
       <c r="A79">
         <v>57</v>
       </c>
-      <c r="B79" s="7"/>
+      <c r="B79" s="17"/>
       <c r="C79">
         <v>57</v>
       </c>
@@ -3798,7 +3798,7 @@
       <c r="A80">
         <v>50</v>
       </c>
-      <c r="B80" s="7"/>
+      <c r="B80" s="17"/>
       <c r="C80">
         <v>50</v>
       </c>
@@ -3807,7 +3807,7 @@
       <c r="A81">
         <v>53</v>
       </c>
-      <c r="B81" s="7"/>
+      <c r="B81" s="17"/>
       <c r="C81">
         <v>53</v>
       </c>
@@ -3816,7 +3816,7 @@
       <c r="A82">
         <v>32</v>
       </c>
-      <c r="B82" s="7"/>
+      <c r="B82" s="17"/>
       <c r="C82">
         <v>32</v>
       </c>
@@ -3825,7 +3825,7 @@
       <c r="A83">
         <v>32</v>
       </c>
-      <c r="B83" s="7"/>
+      <c r="B83" s="17"/>
       <c r="C83">
         <v>32</v>
       </c>
@@ -3834,7 +3834,7 @@
       <c r="A84">
         <v>32</v>
       </c>
-      <c r="B84" s="7"/>
+      <c r="B84" s="17"/>
       <c r="C84">
         <v>32</v>
       </c>
@@ -3843,7 +3843,7 @@
       <c r="A85">
         <v>32</v>
       </c>
-      <c r="B85" s="7"/>
+      <c r="B85" s="17"/>
       <c r="C85">
         <v>32</v>
       </c>
@@ -3852,7 +3852,7 @@
       <c r="A86">
         <v>32</v>
       </c>
-      <c r="B86" s="7"/>
+      <c r="B86" s="17"/>
       <c r="C86">
         <v>32</v>
       </c>
@@ -3861,7 +3861,7 @@
       <c r="A87">
         <v>32</v>
       </c>
-      <c r="B87" s="7"/>
+      <c r="B87" s="17"/>
       <c r="C87">
         <v>32</v>
       </c>
@@ -3870,7 +3870,7 @@
       <c r="A88">
         <v>32</v>
       </c>
-      <c r="B88" s="7"/>
+      <c r="B88" s="17"/>
       <c r="C88">
         <v>32</v>
       </c>
@@ -3879,7 +3879,7 @@
       <c r="A89">
         <v>32</v>
       </c>
-      <c r="B89" s="7"/>
+      <c r="B89" s="17"/>
       <c r="C89">
         <v>32</v>
       </c>
@@ -3888,7 +3888,7 @@
       <c r="A90">
         <v>32</v>
       </c>
-      <c r="B90" s="7"/>
+      <c r="B90" s="17"/>
       <c r="C90">
         <v>32</v>
       </c>
@@ -3897,7 +3897,7 @@
       <c r="A91">
         <v>32</v>
       </c>
-      <c r="B91" s="7"/>
+      <c r="B91" s="17"/>
       <c r="C91">
         <v>32</v>
       </c>
@@ -3906,7 +3906,7 @@
       <c r="A92">
         <v>32</v>
       </c>
-      <c r="B92" s="7"/>
+      <c r="B92" s="17"/>
       <c r="C92">
         <v>32</v>
       </c>
@@ -3915,7 +3915,7 @@
       <c r="A93">
         <v>32</v>
       </c>
-      <c r="B93" s="7"/>
+      <c r="B93" s="17"/>
       <c r="C93">
         <v>32</v>
       </c>
@@ -3924,7 +3924,7 @@
       <c r="A94">
         <v>32</v>
       </c>
-      <c r="B94" s="7"/>
+      <c r="B94" s="17"/>
       <c r="C94">
         <v>32</v>
       </c>
@@ -3933,7 +3933,7 @@
       <c r="A95">
         <v>32</v>
       </c>
-      <c r="B95" s="7"/>
+      <c r="B95" s="17"/>
       <c r="C95">
         <v>32</v>
       </c>
@@ -3942,7 +3942,7 @@
       <c r="A96">
         <v>32</v>
       </c>
-      <c r="B96" s="7"/>
+      <c r="B96" s="17"/>
       <c r="C96">
         <v>32</v>
       </c>
@@ -3951,7 +3951,7 @@
       <c r="A97">
         <v>32</v>
       </c>
-      <c r="B97" s="7"/>
+      <c r="B97" s="17"/>
       <c r="C97">
         <v>32</v>
       </c>
@@ -3960,7 +3960,7 @@
       <c r="A98">
         <v>32</v>
       </c>
-      <c r="B98" s="7"/>
+      <c r="B98" s="17"/>
       <c r="C98">
         <v>32</v>
       </c>
@@ -3969,7 +3969,7 @@
       <c r="A99">
         <v>32</v>
       </c>
-      <c r="B99" s="7"/>
+      <c r="B99" s="17"/>
       <c r="C99">
         <v>32</v>
       </c>
@@ -3978,7 +3978,7 @@
       <c r="A100">
         <v>48</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="B100" s="17" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3986,181 +3986,181 @@
       <c r="A101">
         <v>48</v>
       </c>
-      <c r="B101" s="7"/>
+      <c r="B101" s="17"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>48</v>
       </c>
-      <c r="B102" s="7"/>
+      <c r="B102" s="17"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>48</v>
       </c>
-      <c r="B103" s="7"/>
+      <c r="B103" s="17"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>48</v>
       </c>
-      <c r="B104" s="7"/>
+      <c r="B104" s="17"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>48</v>
       </c>
-      <c r="B105" s="7"/>
+      <c r="B105" s="17"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>48</v>
       </c>
-      <c r="B106" s="7"/>
+      <c r="B106" s="17"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>48</v>
       </c>
-      <c r="B107" s="7"/>
+      <c r="B107" s="17"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>48</v>
       </c>
-      <c r="B108" s="7"/>
+      <c r="B108" s="17"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>48</v>
       </c>
-      <c r="B109" s="7"/>
+      <c r="B109" s="17"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>48</v>
       </c>
-      <c r="B110" s="7"/>
+      <c r="B110" s="17"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>48</v>
       </c>
-      <c r="B111" s="7"/>
+      <c r="B111" s="17"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>48</v>
       </c>
-      <c r="B112" s="7"/>
+      <c r="B112" s="17"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>48</v>
       </c>
-      <c r="B113" s="7"/>
+      <c r="B113" s="17"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>48</v>
       </c>
-      <c r="B114" s="7"/>
+      <c r="B114" s="17"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>48</v>
       </c>
-      <c r="B115" s="7"/>
+      <c r="B115" s="17"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>48</v>
       </c>
-      <c r="B116" s="7"/>
+      <c r="B116" s="17"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>48</v>
       </c>
-      <c r="B117" s="7"/>
+      <c r="B117" s="17"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>48</v>
       </c>
-      <c r="B118" s="7"/>
+      <c r="B118" s="17"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>48</v>
       </c>
-      <c r="B119" s="7"/>
+      <c r="B119" s="17"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>48</v>
       </c>
-      <c r="B120" s="7"/>
+      <c r="B120" s="17"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>48</v>
       </c>
-      <c r="B121" s="7"/>
+      <c r="B121" s="17"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>48</v>
       </c>
-      <c r="B122" s="7"/>
+      <c r="B122" s="17"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>48</v>
       </c>
-      <c r="B123" s="7"/>
+      <c r="B123" s="17"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>48</v>
       </c>
-      <c r="B124" s="7"/>
+      <c r="B124" s="17"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>48</v>
       </c>
-      <c r="B125" s="7"/>
+      <c r="B125" s="17"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>48</v>
       </c>
-      <c r="B126" s="7"/>
+      <c r="B126" s="17"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>48</v>
       </c>
-      <c r="B127" s="7"/>
+      <c r="B127" s="17"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>48</v>
       </c>
-      <c r="B128" s="7"/>
+      <c r="B128" s="17"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>48</v>
       </c>
-      <c r="B129" s="7"/>
+      <c r="B129" s="17"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>48</v>
       </c>
-      <c r="B130" s="7" t="s">
+      <c r="B130" s="17" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4168,25 +4168,25 @@
       <c r="A131">
         <v>48</v>
       </c>
-      <c r="B131" s="7"/>
+      <c r="B131" s="17"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>48</v>
       </c>
-      <c r="B132" s="7"/>
+      <c r="B132" s="17"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>50</v>
       </c>
-      <c r="B133" s="7"/>
+      <c r="B133" s="17"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>48</v>
       </c>
-      <c r="B134" s="8" t="s">
+      <c r="B134" s="18" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4194,19 +4194,19 @@
       <c r="A135">
         <v>48</v>
       </c>
-      <c r="B135" s="8"/>
+      <c r="B135" s="18"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>48</v>
       </c>
-      <c r="B136" s="8"/>
+      <c r="B136" s="18"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>48</v>
       </c>
-      <c r="B137" s="8"/>
+      <c r="B137" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4329,585 +4329,585 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="11" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="11" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="11" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="11" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="11" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="11" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="11" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="11" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="11" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="11" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="11" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="11" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="11" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="11" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="11" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="11" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="14" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="15" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="11" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="11" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="11" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="11" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="11" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="11" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="11" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="11" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="11" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="11" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="11" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="11" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="11" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="11" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="11" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="11" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="11" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="11" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="11" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="11" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="11" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="11" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="11" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="11" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="11" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="11" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="11" t="s">
         <v>197</v>
       </c>
     </row>

--- a/documents/PSI.xlsx
+++ b/documents/PSI.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20250" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="20250" windowHeight="7995" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Request" sheetId="1" r:id="rId1"/>
@@ -12,18 +12,16 @@
     <sheet name="Keys" sheetId="3" r:id="rId3"/>
     <sheet name="Template" sheetId="4" r:id="rId4"/>
     <sheet name="Validations" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
-    <sheet name="Points" sheetId="8" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="9" r:id="rId8"/>
-    <sheet name="Sheet3" sheetId="10" r:id="rId9"/>
-    <sheet name="Sheet4" sheetId="11" r:id="rId10"/>
+    <sheet name="Points" sheetId="8" r:id="rId6"/>
+    <sheet name="Issues" sheetId="11" r:id="rId7"/>
+    <sheet name="Use cases" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="191">
   <si>
     <t>HeartBeat</t>
   </si>
@@ -467,372 +465,6 @@
     <t>OPEN POINTS TO DISCUSS WITH CA</t>
   </si>
   <si>
-    <t>Wrong Stack Trace information is seen in log for HT-TT-TokenSeparated-ASCII decoding failure</t>
-  </si>
-  <si>
-    <t>Wrong Stack Trace information is showing in log for MIXED and TT-MIXED decoding failure</t>
-  </si>
-  <si>
-    <t>Wrong Stack Trace information is seen in log for HT-TTBER decoding failure</t>
-  </si>
-  <si>
-    <t>Wrong Stack Trace information is showing in log for HT-ISO decoding failure</t>
-  </si>
-  <si>
-    <t>Wrong Stack Trace information is seen in log for HT-TT-ISO decoding failure</t>
-  </si>
-  <si>
-    <t>[MM15.x OLM PSI PC]PSI activities can be seen in inactive mode without license in BLDM</t>
-  </si>
-  <si>
-    <t>Wrong Stack Trace information is showing in log for HT-MIXED decoding failure</t>
-  </si>
-  <si>
-    <t>Wrong Stack Trace information is seen in log for HT-TT-PACKED decoding failure</t>
-  </si>
-  <si>
-    <t>Wrong Stack Trace information is seen in log for HT-TT-MIXED decoding failure</t>
-  </si>
-  <si>
-    <t>Stacktrace information is not showing in log for HT-BER decoding failure</t>
-  </si>
-  <si>
-    <t>##LEGACYS## FNT Processing issue is not getting raised at the distributor</t>
-  </si>
-  <si>
-    <t>##LEGACYS## FNT Processing issue is not getting raised at the distributor(TT-ISO encoder and decode)</t>
-  </si>
-  <si>
-    <t>##LEGACYS## FNT Decode issue is not getting raised at the collector (TT-ISO encoder and decode)</t>
-  </si>
-  <si>
-    <t>##LEGACYS##FNT Processing issue is not getting raised at the distributor(PACKED encoder and decoder)</t>
-  </si>
-  <si>
-    <t>##LEGACYS##FNT Processing issue is not getting raised at the distributor(TT-PACKED enc and dec)</t>
-  </si>
-  <si>
-    <t>##LEGACYS## FNT Decode issue is not getting raised at the collector(TT-PACKED encoder and decoder)</t>
-  </si>
-  <si>
-    <t>Wrong Stack Trace information is showing in log for HT-FILE decoding failure</t>
-  </si>
-  <si>
-    <t>MM15.x : CLI is getting hanged if non admin user try to Ack/Cease alarms</t>
-  </si>
-  <si>
-    <t>MM15.x PCP : BLDM GUI doesn;t come back when ALT+TAB is used</t>
-  </si>
-  <si>
-    <t>MM15.x: Getting error while ceasing alarm via web UI</t>
-  </si>
-  <si>
-    <t>CPI chnages in NIR for MSC has some issue</t>
-  </si>
-  <si>
-    <t>Platform alarm is coming with wrong information after restarting manager and server</t>
-  </si>
-  <si>
-    <t>MM15.x: Protected File config are not getting validated</t>
-  </si>
-  <si>
-    <t>Stack Trace Informations should be printed in separate line.</t>
-  </si>
-  <si>
-    <t>Stacktrace information is not showing in log for BER decoding failure</t>
-  </si>
-  <si>
-    <t>HW48366</t>
-  </si>
-  <si>
-    <t>HW48373</t>
-  </si>
-  <si>
-    <t>HW48118</t>
-  </si>
-  <si>
-    <t>HW48099</t>
-  </si>
-  <si>
-    <t>HW48104</t>
-  </si>
-  <si>
-    <t>HW48114</t>
-  </si>
-  <si>
-    <t>HW48138</t>
-  </si>
-  <si>
-    <t>HW48141</t>
-  </si>
-  <si>
-    <t>HW48166</t>
-  </si>
-  <si>
-    <t>HW47702</t>
-  </si>
-  <si>
-    <t>HW47775</t>
-  </si>
-  <si>
-    <t>HW47785</t>
-  </si>
-  <si>
-    <t>HW47787</t>
-  </si>
-  <si>
-    <t>HW47795</t>
-  </si>
-  <si>
-    <t>HW47803</t>
-  </si>
-  <si>
-    <t>HW47825</t>
-  </si>
-  <si>
-    <t>HW47831</t>
-  </si>
-  <si>
-    <t>HW47314</t>
-  </si>
-  <si>
-    <t>HW46793</t>
-  </si>
-  <si>
-    <t>HW46802</t>
-  </si>
-  <si>
-    <t>HW45974</t>
-  </si>
-  <si>
-    <t>HW46028</t>
-  </si>
-  <si>
-    <t>HW45377</t>
-  </si>
-  <si>
-    <t>HW44150</t>
-  </si>
-  <si>
-    <t>HW44217</t>
-  </si>
-  <si>
-    <t>C++</t>
-  </si>
-  <si>
-    <t>Java</t>
-  </si>
-  <si>
-    <t>CPI</t>
-  </si>
-  <si>
-    <t>Desription</t>
-  </si>
-  <si>
-    <t>TR</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>MM15.x : WEBUI doesn't show the raised alarms in sorted order</t>
-  </si>
-  <si>
-    <t>MM15.x : Alarms Synchronisation in ESA failed with Manager</t>
-  </si>
-  <si>
-    <t>MM15.x:BGwRaiseAlarm is throwingTCP Socket Message</t>
-  </si>
-  <si>
-    <t>Alarms are not coming in sequential order in ymer GUI if show pagesize is 10</t>
-  </si>
-  <si>
-    <t>Spelling Mistake in Alarm Parameters</t>
-  </si>
-  <si>
-    <t>Alarm counter remains 1 when going to raise 100 alarms for the first time via "alarm"</t>
-  </si>
-  <si>
-    <t>MM15.x: No N/w Elements are defined in NIR for "Changes from Multi Mediation 8 to Multi Mediation15"</t>
-  </si>
-  <si>
-    <t>On ack+cease over 300,inconsistency between DB and GUI in alarm state(MM DB Down)</t>
-  </si>
-  <si>
-    <t>Not getting proper return value of "uniqueDUPAlarm" in processor log</t>
-  </si>
-  <si>
-    <t>In formatter window horizontal scrolling not possible if alarm description provided is too long</t>
-  </si>
-  <si>
-    <t>Not able to show alarm description upto 4000 characters in additional text</t>
-  </si>
-  <si>
-    <t>MM15.x : Mismatch of values in figures and their descriptions in sections In DUP Reference Guide</t>
-  </si>
-  <si>
-    <t>MM15.x : Scalable config not getting started on 2nd node if ProcessManager is killed twice on Node1</t>
-  </si>
-  <si>
-    <t>MM DB is going down when ceasing 1000 alarms at a time</t>
-  </si>
-  <si>
-    <t>MM15.x 303 Alarm is not getting raised as separate alarm for alarm Api in Dup logic with 2 collector</t>
-  </si>
-  <si>
-    <t>MM15.x : Instead of Activation, Provision should be used in alarm raised</t>
-  </si>
-  <si>
-    <t>MM15.x:ESME is not taking special character $ in password while connecting to SMS Server</t>
-  </si>
-  <si>
-    <t>MM15.x:CPI : Multiple findings on the document for IMS 2017B DROP1</t>
-  </si>
-  <si>
-    <t>MM15.x:Online: Incorrect SFTP port in Front End Intercom-FE</t>
-  </si>
-  <si>
-    <t>[MM15.x] :: Job Manager core while running MNP</t>
-  </si>
-  <si>
-    <t>[MM15.x] Core of 30 GB for logmanager is there for MNP</t>
-  </si>
-  <si>
-    <t>[MM15.x] StopNDrain with multiple ScalConsldtr few files are still left for procesng in storage dir</t>
-  </si>
-  <si>
-    <t>Distributor Append Use cases documentation needs to be improved</t>
-  </si>
-  <si>
-    <t>Getting cores of LOG managers while running MNP</t>
-  </si>
-  <si>
-    <t>15.x DUP Function are not updated after run time replace on web GUI</t>
-  </si>
-  <si>
-    <t>ICP 1404 &lt;Memory leak during configuration run&gt;</t>
-  </si>
-  <si>
-    <t>Memory not released BGwLogMgr</t>
-  </si>
-  <si>
-    <t>MM15.x : After server restart, switch processes through CLI command "mnpswitch" get stuck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HW43330   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HW43349   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HW43479   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HW39894   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HW39947   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HW38903   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HW39079   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HW38590   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HW38727   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HW36274   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HW36359   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HW35430   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HW35083   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HW35101   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HW22899   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HW21046   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HW16589   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HW13109   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HW10573   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HV99821   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HV99490   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HV99202   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HV95246   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HV94933   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HV87387   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HV79477   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HV79483   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HV58834   </t>
-  </si>
-  <si>
-    <t>Java (Product Knowledge)</t>
-  </si>
-  <si>
-    <t>Java Complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java </t>
-  </si>
-  <si>
-    <t>Conup issue C++</t>
-  </si>
-  <si>
-    <t>Java Complex (Product Knowledge)</t>
-  </si>
-  <si>
-    <t>Java (YMER)</t>
-  </si>
-  <si>
-    <t>Java + C++   (Product Knowledge)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java Complex (Product Knowledge) </t>
-  </si>
-  <si>
-    <t>Not sure</t>
-  </si>
-  <si>
-    <t>(Product Knowledge)</t>
-  </si>
-  <si>
     <t>PSI Client not able to send single request. (All 5 requests are being sent in one go)</t>
   </si>
   <si>
@@ -907,13 +539,71 @@
   </si>
   <si>
     <t>Issu</t>
+  </si>
+  <si>
+    <t>V1.5</t>
+  </si>
+  <si>
+    <t>PSI Simulator was though sending a single request but in an infinite loop. We needed a single request to be sent once.</t>
+  </si>
+  <si>
+    <t>Fixed the code manually</t>
+  </si>
+  <si>
+    <t>4th Dec</t>
+  </si>
+  <si>
+    <t>PSI Simulator can send only 900 maximum requests per second, we need to support 4200 TPS</t>
+  </si>
+  <si>
+    <t>We have to manually copy the file</t>
+  </si>
+  <si>
+    <t>PSI Simulator make clean command does not update the PSISimulator file so the new changes are not getting reflected</t>
+  </si>
+  <si>
+    <t>FE</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>PSIServer</t>
+  </si>
+  <si>
+    <t>PSIClient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate Subscriber </t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>Receives the request in binary and send back to PSIClient in binary 
+No transaction created</t>
+  </si>
+  <si>
+    <t>Receives the request in binary and fill the map events, creates transaction, sends the transaction forward</t>
+  </si>
+  <si>
+    <t>Receives the request in binary and closes the socket</t>
+  </si>
+  <si>
+    <t>What will happen in case of disconnect message on PSI FE?</t>
+  </si>
+  <si>
+    <t>What should happen in case there is no PSI Server and the desired fields in response are not present?</t>
+  </si>
+  <si>
+    <t>Points to discuss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -929,68 +619,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FF3A6EA5"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFC0C0C0"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFC0C0C0"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFC0C0C0"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFC0C0C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFC0C0C0"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFC0C0C0"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFC0C0C0"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1008,55 +651,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFC0C0C0"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFC0C0C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFC0C0C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFC0C0C0"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFC0C0C0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1066,35 +665,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1399,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2003,211 +1576,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="84.140625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="12.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="G2" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
-        <v>2</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="G3" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
-        <v>3</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
-        <v>4</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
-        <v>5</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="G6" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
-        <v>6</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="G7" s="16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
-        <v>7</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
-        <v>8</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2668,7 +2042,7 @@
   <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E2" sqref="E2:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3262,969 +2636,6 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C137"/>
-  <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="M93" sqref="M93"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>135</v>
-      </c>
-      <c r="B2" s="18"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6" s="18"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7" s="18"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>34</v>
-      </c>
-      <c r="B8" s="18"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>51</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>56</v>
-      </c>
-      <c r="B10" s="17"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>48</v>
-      </c>
-      <c r="B11" s="17"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>54</v>
-      </c>
-      <c r="B12" s="17"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>55</v>
-      </c>
-      <c r="B13" s="17"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>56</v>
-      </c>
-      <c r="B14" s="17"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>52</v>
-      </c>
-      <c r="B15" s="17"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>53</v>
-      </c>
-      <c r="B16" s="17"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>48</v>
-      </c>
-      <c r="B17" s="17"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>50</v>
-      </c>
-      <c r="B18" s="17"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>50</v>
-      </c>
-      <c r="B19" s="17"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>54</v>
-      </c>
-      <c r="B20" s="17"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>32</v>
-      </c>
-      <c r="B21" s="17"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>32</v>
-      </c>
-      <c r="B22" s="17"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>32</v>
-      </c>
-      <c r="B23" s="17"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>32</v>
-      </c>
-      <c r="B24" s="17"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>32</v>
-      </c>
-      <c r="B25" s="17"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>32</v>
-      </c>
-      <c r="B26" s="17"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>32</v>
-      </c>
-      <c r="B27" s="17"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>32</v>
-      </c>
-      <c r="B28" s="17"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>32</v>
-      </c>
-      <c r="B29" s="17"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>32</v>
-      </c>
-      <c r="B30" s="17"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>32</v>
-      </c>
-      <c r="B31" s="17"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>32</v>
-      </c>
-      <c r="B32" s="17"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" s="17"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>32</v>
-      </c>
-      <c r="B34" s="17"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>32</v>
-      </c>
-      <c r="B35" s="17"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>32</v>
-      </c>
-      <c r="B36" s="17"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>32</v>
-      </c>
-      <c r="B37" s="17"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>32</v>
-      </c>
-      <c r="B38" s="17"/>
-    </row>
-    <row r="39" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>51</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>56</v>
-      </c>
-      <c r="B40" s="17"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>48</v>
-      </c>
-      <c r="B41" s="17"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>54</v>
-      </c>
-      <c r="B42" s="17"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>55</v>
-      </c>
-      <c r="B43" s="17"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>50</v>
-      </c>
-      <c r="B44" s="17"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>48</v>
-      </c>
-      <c r="B45" s="17"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>53</v>
-      </c>
-      <c r="B46" s="17"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>52</v>
-      </c>
-      <c r="B47" s="17"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>52</v>
-      </c>
-      <c r="B48" s="17"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>55</v>
-      </c>
-      <c r="B49" s="17"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>53</v>
-      </c>
-      <c r="B50" s="17"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>32</v>
-      </c>
-      <c r="B51" s="17"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>32</v>
-      </c>
-      <c r="B52" s="17"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>32</v>
-      </c>
-      <c r="B53" s="17"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>32</v>
-      </c>
-      <c r="B54" s="17"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>32</v>
-      </c>
-      <c r="B55" s="17"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>32</v>
-      </c>
-      <c r="B56" s="17"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>32</v>
-      </c>
-      <c r="B57" s="17"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>32</v>
-      </c>
-      <c r="B58" s="17"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>32</v>
-      </c>
-      <c r="B59" s="17"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>32</v>
-      </c>
-      <c r="B60" s="17"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>32</v>
-      </c>
-      <c r="B61" s="17"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>32</v>
-      </c>
-      <c r="B62" s="17"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>32</v>
-      </c>
-      <c r="B63" s="17"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>32</v>
-      </c>
-      <c r="B64" s="17"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>32</v>
-      </c>
-      <c r="B65" s="17"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>32</v>
-      </c>
-      <c r="B66" s="17"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>32</v>
-      </c>
-      <c r="B67" s="17"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>32</v>
-      </c>
-      <c r="B68" s="17"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>1</v>
-      </c>
-      <c r="B69" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>51</v>
-      </c>
-      <c r="B70" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C70">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>56</v>
-      </c>
-      <c r="B71" s="17"/>
-      <c r="C71">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>48</v>
-      </c>
-      <c r="B72" s="17"/>
-      <c r="C72">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>54</v>
-      </c>
-      <c r="B73" s="17"/>
-      <c r="C73">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>55</v>
-      </c>
-      <c r="B74" s="17"/>
-      <c r="C74">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>55</v>
-      </c>
-      <c r="B75" s="17"/>
-      <c r="C75">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>54</v>
-      </c>
-      <c r="B76" s="17"/>
-      <c r="C76">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>55</v>
-      </c>
-      <c r="B77" s="17"/>
-      <c r="C77">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>48</v>
-      </c>
-      <c r="B78" s="17"/>
-      <c r="C78">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>57</v>
-      </c>
-      <c r="B79" s="17"/>
-      <c r="C79">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>50</v>
-      </c>
-      <c r="B80" s="17"/>
-      <c r="C80">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>53</v>
-      </c>
-      <c r="B81" s="17"/>
-      <c r="C81">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>32</v>
-      </c>
-      <c r="B82" s="17"/>
-      <c r="C82">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>32</v>
-      </c>
-      <c r="B83" s="17"/>
-      <c r="C83">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>32</v>
-      </c>
-      <c r="B84" s="17"/>
-      <c r="C84">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>32</v>
-      </c>
-      <c r="B85" s="17"/>
-      <c r="C85">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>32</v>
-      </c>
-      <c r="B86" s="17"/>
-      <c r="C86">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>32</v>
-      </c>
-      <c r="B87" s="17"/>
-      <c r="C87">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>32</v>
-      </c>
-      <c r="B88" s="17"/>
-      <c r="C88">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>32</v>
-      </c>
-      <c r="B89" s="17"/>
-      <c r="C89">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>32</v>
-      </c>
-      <c r="B90" s="17"/>
-      <c r="C90">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>32</v>
-      </c>
-      <c r="B91" s="17"/>
-      <c r="C91">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>32</v>
-      </c>
-      <c r="B92" s="17"/>
-      <c r="C92">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>32</v>
-      </c>
-      <c r="B93" s="17"/>
-      <c r="C93">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>32</v>
-      </c>
-      <c r="B94" s="17"/>
-      <c r="C94">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>32</v>
-      </c>
-      <c r="B95" s="17"/>
-      <c r="C95">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>32</v>
-      </c>
-      <c r="B96" s="17"/>
-      <c r="C96">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>32</v>
-      </c>
-      <c r="B97" s="17"/>
-      <c r="C97">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>32</v>
-      </c>
-      <c r="B98" s="17"/>
-      <c r="C98">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>32</v>
-      </c>
-      <c r="B99" s="17"/>
-      <c r="C99">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>48</v>
-      </c>
-      <c r="B100" s="17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>48</v>
-      </c>
-      <c r="B101" s="17"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>48</v>
-      </c>
-      <c r="B102" s="17"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>48</v>
-      </c>
-      <c r="B103" s="17"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>48</v>
-      </c>
-      <c r="B104" s="17"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>48</v>
-      </c>
-      <c r="B105" s="17"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>48</v>
-      </c>
-      <c r="B106" s="17"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>48</v>
-      </c>
-      <c r="B107" s="17"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>48</v>
-      </c>
-      <c r="B108" s="17"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>48</v>
-      </c>
-      <c r="B109" s="17"/>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>48</v>
-      </c>
-      <c r="B110" s="17"/>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>48</v>
-      </c>
-      <c r="B111" s="17"/>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>48</v>
-      </c>
-      <c r="B112" s="17"/>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>48</v>
-      </c>
-      <c r="B113" s="17"/>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>48</v>
-      </c>
-      <c r="B114" s="17"/>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>48</v>
-      </c>
-      <c r="B115" s="17"/>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>48</v>
-      </c>
-      <c r="B116" s="17"/>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>48</v>
-      </c>
-      <c r="B117" s="17"/>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>48</v>
-      </c>
-      <c r="B118" s="17"/>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>48</v>
-      </c>
-      <c r="B119" s="17"/>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>48</v>
-      </c>
-      <c r="B120" s="17"/>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>48</v>
-      </c>
-      <c r="B121" s="17"/>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>48</v>
-      </c>
-      <c r="B122" s="17"/>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>48</v>
-      </c>
-      <c r="B123" s="17"/>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>48</v>
-      </c>
-      <c r="B124" s="17"/>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>48</v>
-      </c>
-      <c r="B125" s="17"/>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>48</v>
-      </c>
-      <c r="B126" s="17"/>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>48</v>
-      </c>
-      <c r="B127" s="17"/>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>48</v>
-      </c>
-      <c r="B128" s="17"/>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>48</v>
-      </c>
-      <c r="B129" s="17"/>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>48</v>
-      </c>
-      <c r="B130" s="17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>48</v>
-      </c>
-      <c r="B131" s="17"/>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>48</v>
-      </c>
-      <c r="B132" s="17"/>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>50</v>
-      </c>
-      <c r="B133" s="17"/>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>48</v>
-      </c>
-      <c r="B134" s="18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>48</v>
-      </c>
-      <c r="B135" s="18"/>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>48</v>
-      </c>
-      <c r="B136" s="18"/>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>48</v>
-      </c>
-      <c r="B137" s="18"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B130:B133"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B38"/>
-    <mergeCell ref="B39:B68"/>
-    <mergeCell ref="B70:B99"/>
-    <mergeCell ref="B100:B129"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4302,810 +2713,358 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A51" activeCellId="15" sqref="A19:XFD19 A20:XFD20 A21:XFD21 A23:XFD23 A27:XFD27 A28:XFD28 A30:XFD30 A31:XFD31 A32:XFD32 A34:XFD34 A40:XFD40 A43:XFD43 A45:XFD45 A36:XFD36 A37:XFD37 A51:XFD51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="96.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="84.140625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="12.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G3" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="G7" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="B11" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="C11" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>197</v>
-      </c>
+      <c r="G13" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A2:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="86" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="62" style="1" customWidth="1"/>
+    <col min="3" max="3" width="52.5703125" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>231</v>
-      </c>
-      <c r="B5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>232</v>
-      </c>
-      <c r="B6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>234</v>
-      </c>
-      <c r="B7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C7" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>235</v>
-      </c>
-      <c r="B8" t="s">
-        <v>207</v>
-      </c>
-      <c r="C8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>236</v>
-      </c>
-      <c r="B9" t="s">
-        <v>208</v>
-      </c>
-      <c r="C9" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C10" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>240</v>
-      </c>
-      <c r="B11" t="s">
-        <v>212</v>
-      </c>
-      <c r="C11" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>241</v>
-      </c>
-      <c r="B12" t="s">
-        <v>213</v>
-      </c>
-      <c r="C12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>244</v>
-      </c>
-      <c r="B13" t="s">
-        <v>216</v>
-      </c>
-      <c r="C13" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>247</v>
-      </c>
-      <c r="B14" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>249</v>
-      </c>
-      <c r="B15" t="s">
-        <v>221</v>
-      </c>
-      <c r="C15" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>255</v>
-      </c>
-      <c r="B16" t="s">
-        <v>227</v>
-      </c>
-      <c r="C16" t="s">
-        <v>198</v>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/documents/PSI.xlsx
+++ b/documents/PSI.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20250" windowHeight="7995" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="15120" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Request" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="Points" sheetId="8" r:id="rId6"/>
     <sheet name="Issues" sheetId="11" r:id="rId7"/>
     <sheet name="Use cases" sheetId="12" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="14" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="196">
   <si>
     <t>HeartBeat</t>
   </si>
@@ -559,9 +560,6 @@
     <t>We have to manually copy the file</t>
   </si>
   <si>
-    <t>PSI Simulator make clean command does not update the PSISimulator file so the new changes are not getting reflected</t>
-  </si>
-  <si>
     <t>FE</t>
   </si>
   <si>
@@ -587,9 +585,6 @@
     <t>Receives the request in binary and fill the map events, creates transaction, sends the transaction forward</t>
   </si>
   <si>
-    <t>Receives the request in binary and closes the socket</t>
-  </si>
-  <si>
     <t>What will happen in case of disconnect message on PSI FE?</t>
   </si>
   <si>
@@ -597,13 +592,34 @@
   </si>
   <si>
     <t>Points to discuss</t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
+    <t>PSI Simulator "make clean" command does not update the PSISimulator file so the new changes are not getting reflected</t>
+  </si>
+  <si>
+    <t>How can PSI Simulator be used to test negative scenarios (Invalid Request/Request-Response Timeout/Heartbeat Timeout)?</t>
+  </si>
+  <si>
+    <t>5th Dec</t>
+  </si>
+  <si>
+    <t>Send to BE only. Wont come in localProcess</t>
+  </si>
+  <si>
+    <t>Receives the request in binary and close the socket</t>
+  </si>
+  <si>
+    <t>PSISimulator need to be installed on 3 new VM's</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -619,16 +635,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -651,11 +693,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -668,6 +762,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -972,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A47"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41:C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2715,10 +2827,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:G13"/>
+      <selection sqref="A1:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2938,13 +3050,15 @@
       <c r="E12" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>189</v>
+      </c>
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="8" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>175</v>
@@ -2957,6 +3071,21 @@
         <v>177</v>
       </c>
       <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2965,37 +3094,45 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="62" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="52.5703125" customWidth="1"/>
     <col min="4" max="4" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>182</v>
+        <v>15</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="C2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>15</v>
+        <v>182</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>185</v>
@@ -3003,71 +3140,145 @@
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>183</v>
+        <v>41</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>186</v>
+        <v>53</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>190</v>
-      </c>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
       <c r="B12" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="55" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="79.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/documents/PSI.xlsx
+++ b/documents/PSI.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="15120" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="15120" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Request" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="196">
   <si>
     <t>HeartBeat</t>
   </si>
@@ -1084,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41:C45"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1692,7 +1692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B20" sqref="B20:D25"/>
     </sheetView>
   </sheetViews>
@@ -2154,7 +2154,7 @@
   <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2296,10 +2296,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>31</v>
@@ -2310,10 +2310,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>47</v>
@@ -2324,16 +2324,24 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>32</v>
       </c>
       <c r="H10" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
